--- a/data/preprocessed/video/S2_heave.xlsx
+++ b/data/preprocessed/video/S2_heave.xlsx
@@ -17323,7 +17323,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09788109110703413</v>
+        <v>0.09780044757162154</v>
       </c>
       <c r="C92" t="n">
         <v>0.06177294812604585</v>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="AX92" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY92" t="n">
         <v>0</v>
@@ -41373,7 +41373,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.08015967420011694</v>
+        <v>0.08007903066470434</v>
       </c>
       <c r="C222" t="n">
         <v>0.02919295981935848</v>
@@ -41517,7 +41517,7 @@
         <v>0</v>
       </c>
       <c r="AX222" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY222" t="n">
         <v>0</v>
@@ -43047,7 +43047,7 @@
         <v>0.07068405878913732</v>
       </c>
       <c r="E231" t="n">
-        <v>0.1216709340537489</v>
+        <v>0.1215902905183363</v>
       </c>
       <c r="F231" t="n">
         <v>0.1657627870405839</v>
@@ -43191,7 +43191,7 @@
         <v>0</v>
       </c>
       <c r="BA231" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="BB231" t="n">
         <v>0</v>
@@ -44518,7 +44518,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0.09723594282373339</v>
+        <v>0.0971552992883208</v>
       </c>
       <c r="C239" t="n">
         <v>0.07354690429628435</v>
@@ -44662,7 +44662,7 @@
         <v>0</v>
       </c>
       <c r="AX239" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY239" t="n">
         <v>0</v>
@@ -44703,7 +44703,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0.09892945706739784</v>
+        <v>0.09888913529969154</v>
       </c>
       <c r="C240" t="n">
         <v>0.05895042438660511</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="AX240" t="n">
-        <v>0</v>
+        <v>4.032176770629624e-05</v>
       </c>
       <c r="AY240" t="n">
         <v>0</v>
@@ -48403,7 +48403,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1792907401060463</v>
+        <v>0.1792100965706337</v>
       </c>
       <c r="C260" t="n">
         <v>0.05157154089635289</v>
@@ -48547,7 +48547,7 @@
         <v>0</v>
       </c>
       <c r="AX260" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY260" t="n">
         <v>0</v>
@@ -51733,7 +51733,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0.1512671115501704</v>
+        <v>0.1511864680147578</v>
       </c>
       <c r="C278" t="n">
         <v>0.0950585673675934</v>
@@ -51877,7 +51877,7 @@
         <v>0</v>
       </c>
       <c r="AX278" t="n">
-        <v>0</v>
+        <v>8.064353541259248e-05</v>
       </c>
       <c r="AY278" t="n">
         <v>0</v>

--- a/data/preprocessed/video/S2_heave.xlsx
+++ b/data/preprocessed/video/S2_heave.xlsx
@@ -676,10 +676,10 @@
         <v>0.04366847442591883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0515312191286466</v>
+        <v>0.05151105824479345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1246547448640148</v>
+        <v>0.124674905747868</v>
       </c>
       <c r="E2" t="n">
         <v>0.1042720912884821</v>
@@ -861,10 +861,10 @@
         <v>0.05295256144029354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08104675308965545</v>
+        <v>0.08103667264772887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1191306626882523</v>
+        <v>0.1191407431301788</v>
       </c>
       <c r="E3" t="n">
         <v>0.1272454184391444</v>
@@ -1043,40 +1043,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04259994758170198</v>
+        <v>0.04258650699246655</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0617124654744864</v>
+        <v>0.06136301015436517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1217515775891615</v>
+        <v>0.1215566890452477</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2293098929457068</v>
+        <v>0.2296795091496811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1099709011243053</v>
+        <v>0.1100515446597179</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08523349663649255</v>
+        <v>0.08535446193961144</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1145138202858813</v>
+        <v>0.1146549464728534</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0821556017015786</v>
+        <v>0.08201447551460656</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05335913926466537</v>
+        <v>0.05335241897004765</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04664556494156704</v>
+        <v>0.04663884464694932</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02947521219330256</v>
+        <v>0.02946849189868484</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02327238026115065</v>
+        <v>0.02327910055576837</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1228,40 +1228,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04338118183101147</v>
+        <v>0.0433711013890849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06483236225076107</v>
+        <v>0.06457027076067015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1257736739178646</v>
+        <v>0.1256275075099292</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2549293361020947</v>
+        <v>0.2552065482550755</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1217364569262716</v>
+        <v>0.1217969395778311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0725943025342231</v>
+        <v>0.07268502651156226</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09550714703332594</v>
+        <v>0.09561299167355497</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06986250277212153</v>
+        <v>0.0697566581318925</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04399608878853249</v>
+        <v>0.0439910485675692</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0469446180520554</v>
+        <v>0.04693957783109211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03248422410838491</v>
+        <v>0.03247918388742162</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02795810568335316</v>
+        <v>0.02796314590431645</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1413,40 +1413,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04002338662526965</v>
+        <v>0.0399750005040221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0633454970665914</v>
+        <v>0.06325275700086692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.133090058668172</v>
+        <v>0.1324489425616419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2882280599181468</v>
+        <v>0.2876111368722405</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1177718191165501</v>
+        <v>0.1175500493941654</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06930505433358199</v>
+        <v>0.06999455656135965</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09270377613354569</v>
+        <v>0.09308280074998487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06118828249430455</v>
+        <v>0.06166811153000948</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03893469889719965</v>
+        <v>0.03910405032156609</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0404387008326445</v>
+        <v>0.04040644341847947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02856394024314026</v>
+        <v>0.02854377935928711</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02640672567085341</v>
+        <v>0.02636237172637649</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1598,40 +1598,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04205560371766699</v>
+        <v>0.0420220022445784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06534478471536193</v>
+        <v>0.06527422162187591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1410085818162268</v>
+        <v>0.1404743183941184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3172987103754629</v>
+        <v>0.3167778875425898</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1106429305860769</v>
+        <v>0.1104614826313986</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06270706907790838</v>
+        <v>0.06327493397310538</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08532758076114057</v>
+        <v>0.08565015490279093</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05384636062444977</v>
+        <v>0.05424621815420388</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03484136744554881</v>
+        <v>0.03498585377982971</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03510345893563974</v>
+        <v>0.03507657775716887</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02618898812523941</v>
+        <v>0.02617218738869512</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02563456381927784</v>
+        <v>0.02558416160964497</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1783,40 +1783,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03955853424614135</v>
+        <v>0.039529732983494</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06146477461571916</v>
+        <v>0.06139853171163024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1326211741122731</v>
+        <v>0.1321689942887096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3338354353454855</v>
+        <v>0.3333890157744516</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1137937887196975</v>
+        <v>0.1136382619014018</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06338005858176822</v>
+        <v>0.06386968004677325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08164005910019095</v>
+        <v>0.08191079096907608</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04996443044063052</v>
+        <v>0.05031004559239877</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03354771073163847</v>
+        <v>0.0336715561610221</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03786790012874165</v>
+        <v>0.03784485911862376</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02710198815116055</v>
+        <v>0.02708758751983687</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02522414582655304</v>
+        <v>0.02518094393258201</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1968,40 +1968,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03741356021047963</v>
+        <v>0.03739591943710812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06423257595612991</v>
+        <v>0.06419981451986854</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1330441926574061</v>
+        <v>0.1326308945384166</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3552171327190984</v>
+        <v>0.3548214753734804</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1052322533819883</v>
+        <v>0.1050961674159795</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0595754117860527</v>
+        <v>0.05999879034696881</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07473387633313844</v>
+        <v>0.07496824660793129</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04938912521924961</v>
+        <v>0.04968901836656519</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03403409205459567</v>
+        <v>0.03414749702626963</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03612578375435979</v>
+        <v>0.036103102760025</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02513054172294913</v>
+        <v>0.02511794117054092</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02452319509687305</v>
+        <v>0.02448287332916675</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -2153,40 +2153,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03643071712263866</v>
+        <v>0.03641503643519732</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0610404360127148</v>
+        <v>0.06101131473603803</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1349681570040031</v>
+        <v>0.1346075011928523</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3659491632113152</v>
+        <v>0.3655952276947821</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1018438248332807</v>
+        <v>0.1017295798247795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05816190981812643</v>
+        <v>0.05853376612030672</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07629774489313612</v>
+        <v>0.0765015938298735</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04609450078291432</v>
+        <v>0.04635435217479934</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03455799502250179</v>
+        <v>0.03465879944176753</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03437206687141164</v>
+        <v>0.03435638618397031</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02404297404398209</v>
+        <v>0.02402953345474666</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02504205784381587</v>
+        <v>0.02500845637072729</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2338,40 +2338,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03433196911352594</v>
+        <v>0.03431785649482873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05693836817806092</v>
+        <v>0.05691215902905183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1239269369569162</v>
+        <v>0.1236023467268805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.333890445757142</v>
+        <v>0.3335719037922623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09326424870466321</v>
+        <v>0.09316142819701216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05637184734178746</v>
+        <v>0.05670651801374972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07870204229753433</v>
+        <v>0.07888550634059797</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05393439648394185</v>
+        <v>0.05416826273663838</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04774500514102539</v>
+        <v>0.04783572911836455</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07105098687526461</v>
+        <v>0.07103687425656741</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02349549404245882</v>
+        <v>0.02348339751214693</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02367492590875184</v>
+        <v>0.02364468458297212</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2523,40 +2523,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03407372651944334</v>
+        <v>0.03406639528895129</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05343550624895759</v>
+        <v>0.05341717817272745</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1141454259536556</v>
+        <v>0.1138485111187274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3075817752941198</v>
+        <v>0.3072958573049297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08785380060152746</v>
+        <v>0.08775666179750775</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05640098898299338</v>
+        <v>0.05667224451119937</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07753509368396165</v>
+        <v>0.07773853533011614</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05215803933571721</v>
+        <v>0.05235598255900266</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0490807553366776</v>
+        <v>0.04915040202635211</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1078350693076203</v>
+        <v>0.1078259052695052</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02842318061769283</v>
+        <v>0.02840301973383968</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02634477677319556</v>
+        <v>0.0263374455427035</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2708,40 +2708,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03255646727552536</v>
+        <v>0.03254302668628993</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04998219121926305</v>
+        <v>0.04997211077733648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1058261594188289</v>
+        <v>0.1055556675604658</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2868204942104662</v>
+        <v>0.2865567226467208</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08303764037015383</v>
+        <v>0.08295027654012352</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05525090219955243</v>
+        <v>0.05549451287944464</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07600653212636842</v>
+        <v>0.0761963804493189</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0529273603354771</v>
+        <v>0.05311720865842758</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05155642023346303</v>
+        <v>0.05161522281136805</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1382549410966177</v>
+        <v>0.1382465407283455</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03163410683924383</v>
+        <v>0.03161898617635397</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02791946398930129</v>
+        <v>0.02790602340006586</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2893,40 +2893,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03295218923936087</v>
+        <v>0.03293978254160509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04866217027262167</v>
+        <v>0.04865286524930484</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09906593074271146</v>
+        <v>0.09881624595037632</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2677473934303434</v>
+        <v>0.2675039119868861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07879183577254181</v>
+        <v>0.07871119223712922</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0522818243428715</v>
+        <v>0.05250669573969508</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07932842545047944</v>
+        <v>0.07950367005627988</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05551531994547256</v>
+        <v>0.055690564551273</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05571847962122352</v>
+        <v>0.05577275892390507</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1574828671258179</v>
+        <v>0.1574751129397205</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03242800625917902</v>
+        <v>0.03241404872420376</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02739243780755041</v>
+        <v>0.02738003110979462</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -3078,40 +3078,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03378820127474388</v>
+        <v>0.0337694804540231</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04672284832967077</v>
+        <v>0.04671420795087657</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09345001684873865</v>
+        <v>0.09321816668442745</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2516265513080093</v>
+        <v>0.2514004613962276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07587404631819059</v>
+        <v>0.07580060309843983</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05090767179233138</v>
+        <v>0.05111360082025996</v>
       </c>
       <c r="H15" t="n">
-        <v>0.076756805018332</v>
+        <v>0.07690945171036298</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05391596367584755</v>
+        <v>0.05408157093606984</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0563539905589461</v>
+        <v>0.05641303314737318</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1777340318599567</v>
+        <v>0.1777297116705596</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03625646948362216</v>
+        <v>0.03625934960988689</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02930528474368316</v>
+        <v>0.02928224373356528</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -3263,40 +3263,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03513907649711363</v>
+        <v>0.03511891561326048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04477060274322426</v>
+        <v>0.04476119433075946</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08885573543544149</v>
+        <v>0.08863934194875103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2371403802342695</v>
+        <v>0.2369293629832732</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07240042203450199</v>
+        <v>0.07233053097047774</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0504425314005766</v>
+        <v>0.05062666747310202</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07645813592467894</v>
+        <v>0.07660463834734514</v>
       </c>
       <c r="I16" t="n">
-        <v>0.05411450037969665</v>
+        <v>0.05427578745052183</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05643569014065577</v>
+        <v>0.05648810843867395</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1940458189687036</v>
+        <v>0.194041786791933</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0376081127396625</v>
+        <v>0.03761214491643314</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02959886561426853</v>
+        <v>0.02958139284826247</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -3448,40 +3448,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03624674905747868</v>
+        <v>0.03622784822886636</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04416241608032096</v>
+        <v>0.04415359569363521</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08877719199209694</v>
+        <v>0.08857432309832464</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2468574222293905</v>
+        <v>0.2466595935565815</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0706777585129332</v>
+        <v>0.07061223564041047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04901236870224391</v>
+        <v>0.04918499627023649</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07833133404568457</v>
+        <v>0.07846868006693414</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05396312574343259</v>
+        <v>0.0541143323723312</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05487162557206508</v>
+        <v>0.05492076772645713</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1831754904134997</v>
+        <v>0.1831717102477773</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03789868147819601</v>
+        <v>0.03790246164391847</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02956215600491926</v>
+        <v>0.02954577528678857</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -3633,40 +3633,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03745062065873909</v>
+        <v>0.03743283164357455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04429701962839933</v>
+        <v>0.04428871808798921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08771526190767026</v>
+        <v>0.08752432647823752</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2556174745053764</v>
+        <v>0.2554312828133209</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06967720053082421</v>
+        <v>0.06961553194492047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04887116839437535</v>
+        <v>0.04903364139954484</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07818153571381981</v>
+        <v>0.07831080255734882</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05374417261511568</v>
+        <v>0.05388648473643202</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05317136632681742</v>
+        <v>0.05321761776624522</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1758847366692085</v>
+        <v>0.1758811788661756</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03690627679470409</v>
+        <v>0.036909834597737</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02947995593067976</v>
+        <v>0.02946453878420383</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -3818,40 +3818,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03894970755517922</v>
+        <v>0.03893514691684084</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04459475503406069</v>
+        <v>0.04459139488675184</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08802353895194766</v>
+        <v>0.08784993134098999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2663711977133078</v>
+        <v>0.266223351231718</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06939376222253583</v>
+        <v>0.06930303824519667</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0492687199406822</v>
+        <v>0.04941096617675719</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07684880905178883</v>
+        <v>0.07697425455131952</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05248886111167114</v>
+        <v>0.0526199068567166</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05145393574054286</v>
+        <v>0.05149985775376392</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1671460476827304</v>
+        <v>0.1671393273881127</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03555819887143852</v>
+        <v>0.03556379911695329</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02892638813285574</v>
+        <v>0.02891294754362031</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -4003,40 +4003,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03750348836345617</v>
+        <v>0.03748969407450402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04321007959304726</v>
+        <v>0.04320689629559676</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08808714595100481</v>
+        <v>0.08792267558272912</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2746241321535325</v>
+        <v>0.2744840670657107</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06913591512904557</v>
+        <v>0.06904996609788215</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0496849066073583</v>
+        <v>0.04981966619942934</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07618479678359626</v>
+        <v>0.07630363988841481</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05432615429018303</v>
+        <v>0.05445242508905274</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05335843186523192</v>
+        <v>0.05339981473208838</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1602906987231794</v>
+        <v>0.1602843321282784</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03498443898096282</v>
+        <v>0.03498974447671365</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02797481799496827</v>
+        <v>0.02796208480516628</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -4188,40 +4188,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0365788996189593</v>
+        <v>0.03655470655833552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04370274792846918</v>
+        <v>0.04370173988427652</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09045886171649765</v>
+        <v>0.09028951029213121</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2840487086953892</v>
+        <v>0.2839277433922703</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07075562992681599</v>
+        <v>0.07067599443559605</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04911191306626882</v>
+        <v>0.04922178988326848</v>
       </c>
       <c r="H21" t="n">
-        <v>0.07709320376605311</v>
+        <v>0.07721517711336465</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0533890445757142</v>
+        <v>0.05350900183464043</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05124191044535392</v>
+        <v>0.05128324025725288</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1531440898368985</v>
+        <v>0.1531380415717425</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03363843470897764</v>
+        <v>0.03364549101832624</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02702868893772303</v>
+        <v>0.02702969698191569</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -4373,40 +4373,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0356108411792773</v>
+        <v>0.03558780016915942</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04310588976220717</v>
+        <v>0.04310492972011893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08979561663983349</v>
+        <v>0.08963432956900831</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2892760418616752</v>
+        <v>0.2891617968531741</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0717084236972949</v>
+        <v>0.07163162033023528</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04975418122330483</v>
+        <v>0.04985882581092355</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07815894648821405</v>
+        <v>0.0782751115808917</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05444398682438238</v>
+        <v>0.05455823183288355</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05154849988623501</v>
+        <v>0.05158786161185307</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1480413701336667</v>
+        <v>0.1480346498390489</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03370899780246366</v>
+        <v>0.03371667813916962</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0264587599520363</v>
+        <v>0.02645971999412454</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -4558,40 +4558,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0358790420281116</v>
+        <v>0.03585704833663544</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0425064743929283</v>
+        <v>0.04250555798911679</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0882936744310507</v>
+        <v>0.08813971859071756</v>
       </c>
       <c r="E23" t="n">
-        <v>0.291407248021026</v>
+        <v>0.2912981959674567</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07329855886336603</v>
+        <v>0.07322524655844549</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04948030739849453</v>
+        <v>0.04958019541394876</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07763314889179287</v>
+        <v>0.07774403375298519</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05444171763399198</v>
+        <v>0.05455076968756128</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05254934376323058</v>
+        <v>0.05258691631950236</v>
       </c>
       <c r="K23" t="n">
-        <v>0.145779685526868</v>
+        <v>0.1457732707001875</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03539518081563605</v>
+        <v>0.03540251204612811</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02623755752724927</v>
+        <v>0.02623847393106078</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -4743,40 +4743,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03530959666837011</v>
+        <v>0.03528855922434944</v>
       </c>
       <c r="C24" t="n">
         <v>0.04207751772185519</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09131127265141042</v>
+        <v>0.0911640105432657</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2925431903108545</v>
+        <v>0.2924397562110862</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07541397745311937</v>
+        <v>0.07534385263971712</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04924602677190064</v>
+        <v>0.04934069526999368</v>
       </c>
       <c r="H24" t="n">
-        <v>0.07853014884868205</v>
+        <v>0.07863533606878544</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05589999500360705</v>
+        <v>0.0560043056635429</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05273298311832773</v>
+        <v>0.05276892208519639</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1406291773570484</v>
+        <v>0.1406230414358757</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0343541460857644</v>
+        <v>0.03436115856710462</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02603208385525187</v>
+        <v>0.02603296041541939</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4928,40 +4928,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03644919793283737</v>
+        <v>0.03642903704898423</v>
       </c>
       <c r="C25" t="n">
         <v>0.04431278267239236</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09485527845540749</v>
+        <v>0.09471415226843545</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2899471112813586</v>
+        <v>0.2898479869357473</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07609641606688038</v>
+        <v>0.07602921312070321</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05036272790199122</v>
+        <v>0.05045345187933039</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07693897300457653</v>
+        <v>0.07703977742384226</v>
       </c>
       <c r="I25" t="n">
-        <v>0.05558187670947495</v>
+        <v>0.05568184109191347</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05204700174055631</v>
+        <v>0.0520814432504721</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1375022680994335</v>
+        <v>0.137496387841643</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03471620195829385</v>
+        <v>0.03472292225291157</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02635027519606459</v>
+        <v>0.02635111523289181</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03657345618031894</v>
+        <v>0.03655410173181992</v>
       </c>
       <c r="C26" t="n">
         <v>0.04357815366625673</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09333763432188867</v>
+        <v>0.09320215318239551</v>
       </c>
       <c r="E26" t="n">
-        <v>0.281504808370799</v>
+        <v>0.2814096489990121</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0775363399931453</v>
+        <v>0.07747182516481523</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05234975101308442</v>
+        <v>0.05243684603133001</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08171367512751759</v>
+        <v>0.0818104473700127</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05888994173504566</v>
+        <v>0.05898590754218665</v>
       </c>
       <c r="J26" t="n">
-        <v>0.05517550049394165</v>
+        <v>0.05520856434346082</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1348835708957481</v>
+        <v>0.1348779258482692</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03395657345618032</v>
+        <v>0.03396302493901333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02665430132457007</v>
+        <v>0.02665510775992419</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5298,40 +5298,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03686882863713976</v>
+        <v>0.03684789233467688</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04451755780358026</v>
+        <v>0.04451678238497053</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09479647587750246</v>
+        <v>0.09466465471384727</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2830502796934926</v>
+        <v>0.2829556786231047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07870188721381238</v>
+        <v>0.07863985372503346</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05310919599946031</v>
+        <v>0.05319294120931185</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08202765763097208</v>
+        <v>0.08212691121301835</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0588248065718278</v>
+        <v>0.05891863222360592</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05481201526644159</v>
+        <v>0.05484225659222131</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1303222794825787</v>
+        <v>0.1303168515523105</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03323521703191468</v>
+        <v>0.03324064496218283</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02680467050137016</v>
+        <v>0.02680777217580911</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -5483,40 +5483,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03675329126428903</v>
+        <v>0.03673313038043588</v>
       </c>
       <c r="C28" t="n">
         <v>0.04487962085591166</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09572611663295319</v>
+        <v>0.09559992443402052</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2879862786517894</v>
+        <v>0.2878936879259453</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08114382401191135</v>
+        <v>0.08108558145855781</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05357344199303031</v>
+        <v>0.05365259212963897</v>
       </c>
       <c r="H28" t="n">
-        <v>0.08097731004527238</v>
+        <v>0.08107363426812632</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05824031325533311</v>
+        <v>0.05832991718356933</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05345322338931339</v>
+        <v>0.05348309136539212</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1263168977327966</v>
+        <v>0.1263109241375809</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03245006261074485</v>
+        <v>0.03245528950655863</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02641971824044766</v>
+        <v>0.02642270503805554</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -5668,40 +5668,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03682457438934123</v>
+        <v>0.03680513353705427</v>
       </c>
       <c r="C29" t="n">
         <v>0.04554055649799687</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09653607214140268</v>
+        <v>0.0964143868067176</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2919915209082766</v>
+        <v>0.2919022369940698</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08186326888570795</v>
+        <v>0.08180710642354561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05295256144029354</v>
+        <v>0.05302888478630903</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07958940919969931</v>
+        <v>0.07968229327173704</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05762340621012825</v>
+        <v>0.05770980999807031</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0523167735673532</v>
+        <v>0.05234557483000055</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1234846935689661</v>
+        <v>0.1234789333164366</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03295368468953679</v>
+        <v>0.03295872491050007</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02703214508924071</v>
+        <v>0.02703502521550545</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -5853,40 +5853,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03701607795727144</v>
+        <v>0.03699730747920127</v>
       </c>
       <c r="C30" t="n">
         <v>0.04650559742608081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09837190434842456</v>
+        <v>0.09825580546554609</v>
       </c>
       <c r="E30" t="n">
-        <v>0.296015305586859</v>
+        <v>0.2959263196167485</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08141729623081849</v>
+        <v>0.08136307040528243</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05335404111012779</v>
+        <v>0.0534277326166255</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07834032823309318</v>
+        <v>0.07843070460898662</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05721102675210247</v>
+        <v>0.05729445109908101</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0520811246158135</v>
+        <v>0.05210962793436451</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1199690773753866</v>
+        <v>0.1199635157522547</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03231581120792198</v>
+        <v>0.03232067762816239</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02684525965480396</v>
+        <v>0.02684804046636991</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6038,40 +6038,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03655907474983703</v>
+        <v>0.03653891386598389</v>
       </c>
       <c r="C31" t="n">
         <v>0.04605753916251688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09605115488263005</v>
+        <v>0.09593758190359065</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2871198833356854</v>
+        <v>0.2870345355940405</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07987137356101691</v>
+        <v>0.07981693917461341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05334569867542993</v>
+        <v>0.05340886944483646</v>
       </c>
       <c r="H31" t="n">
-        <v>0.07824775038137671</v>
+        <v>0.07834788277118068</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05645517899504714</v>
+        <v>0.05653783861884505</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05390146704031504</v>
+        <v>0.05393036430717123</v>
       </c>
       <c r="K31" t="n">
-        <v>0.130827335470387</v>
+        <v>0.1308239753230782</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03433868940814366</v>
+        <v>0.03434406564383782</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02735294315302783</v>
+        <v>0.02734958300571897</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -6223,40 +6223,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03633901761866144</v>
+        <v>0.0363208077880844</v>
       </c>
       <c r="C32" t="n">
         <v>0.04550896801638364</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09348666877813988</v>
+        <v>0.09337675944358562</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2795098433889535</v>
+        <v>0.2794272488002648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07803237577806378</v>
+        <v>0.07797904698851675</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05255877385406512</v>
+        <v>0.0526199068567166</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07775272480848786</v>
+        <v>0.07785027747229342</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05825389836703344</v>
+        <v>0.05833519225353807</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05777979242093844</v>
+        <v>0.05780645681571196</v>
       </c>
       <c r="K32" t="n">
         <v>0.1394027565781387</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03474175533661848</v>
+        <v>0.03474435674098662</v>
       </c>
       <c r="M32" t="n">
-        <v>0.02739929150752033</v>
+        <v>0.02739408869878404</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -6408,40 +6408,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03596071651781214</v>
+        <v>0.03594244571682022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04467777867381706</v>
+        <v>0.04467840870143747</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09109695369044979</v>
+        <v>0.09098984899497994</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2722582458014959</v>
+        <v>0.2721788623213242</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07679658676236366</v>
+        <v>0.07674492449748997</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05286561762867684</v>
+        <v>0.05292358016975464</v>
       </c>
       <c r="H33" t="n">
-        <v>0.07733022015685168</v>
+        <v>0.07742724441039495</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05779684381363279</v>
+        <v>0.05787496723856374</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05889183181790689</v>
+        <v>0.05891955303320497</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1494904336606117</v>
+        <v>0.1494891736053709</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03622658817362553</v>
+        <v>0.03622784822886636</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02765191225983347</v>
+        <v>0.02764687203887018</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -6593,40 +6593,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03557174128331968</v>
+        <v>0.0355558569505869</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04385236612409452</v>
+        <v>0.04385175518822018</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0888606229224362</v>
+        <v>0.08875676382379877</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2653520548522665</v>
+        <v>0.2652756878679743</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07535160886907827</v>
+        <v>0.07530029025563389</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0530109058162928</v>
+        <v>0.05306711191673188</v>
       </c>
       <c r="H34" t="n">
-        <v>0.07723206949029009</v>
+        <v>0.07732493174318944</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0581055000723959</v>
+        <v>0.05818003424906511</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05950698696812686</v>
+        <v>0.05953509001834641</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1590956438439352</v>
+        <v>0.1590950329080609</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03736361620275251</v>
+        <v>0.03736544901037552</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02783362749895683</v>
+        <v>0.02782874001196212</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -6778,40 +6778,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03548019074567994</v>
+        <v>0.03546536656637615</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04329846291049635</v>
+        <v>0.04329727697615204</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08662538824525597</v>
+        <v>0.08652458382599022</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2585603705807639</v>
+        <v>0.258486249684245</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07396198131679034</v>
+        <v>0.07391217207432962</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05191071811882351</v>
+        <v>0.05196527109866143</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0783683203730475</v>
+        <v>0.07845845138321453</v>
       </c>
       <c r="I35" t="n">
-        <v>0.05801175735308942</v>
+        <v>0.05808409934809189</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0617747270275623</v>
+        <v>0.06180141055030911</v>
       </c>
       <c r="K35" t="n">
         <v>0.1663865885056872</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03854345915701415</v>
+        <v>0.03854523805853061</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02806454329075434</v>
+        <v>0.02805979955337713</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -6963,40 +6963,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03578384076357907</v>
+        <v>0.03576656000599066</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04247149395029478</v>
+        <v>0.04247091792504183</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08469356896606348</v>
+        <v>0.08459449262255657</v>
       </c>
       <c r="E36" t="n">
-        <v>0.252093419775523</v>
+        <v>0.2520219926441575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07233494716408367</v>
+        <v>0.07230499385093042</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05191715604812115</v>
+        <v>0.05204330557851656</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07786363754186984</v>
+        <v>0.07786075741560509</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05787844139087057</v>
+        <v>0.05793604391616528</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06256037464682451</v>
+        <v>0.06259148001048366</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1740443021022042</v>
+        <v>0.1740368137739159</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03984481879685606</v>
+        <v>0.03986094750393857</v>
       </c>
       <c r="M36" t="n">
-        <v>0.02850000144006313</v>
+        <v>0.02849769733905134</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -7148,40 +7148,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03598381753056054</v>
+        <v>0.03596981691677363</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04186575539471651</v>
+        <v>0.04186239524740765</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08315412547686091</v>
+        <v>0.0830572412294555</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2463374394333448</v>
+        <v>0.2462679963889617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07079830379763849</v>
+        <v>0.07076862249641025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05168354580664816</v>
+        <v>0.05180675120797296</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0777039665418932</v>
+        <v>0.07769556617362106</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05762820642056948</v>
+        <v>0.05767188833558463</v>
       </c>
       <c r="J37" t="n">
-        <v>0.06250938041123723</v>
+        <v>0.06253738163881105</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1814793160532158</v>
+        <v>0.1814837962496276</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04064994209346138</v>
+        <v>0.04066954295276305</v>
       </c>
       <c r="M37" t="n">
-        <v>0.02875894079196432</v>
+        <v>0.0287617409147217</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -7333,40 +7333,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03570764974768927</v>
+        <v>0.03569402752886957</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04129330435251687</v>
+        <v>0.04129003502000014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08119714238542489</v>
+        <v>0.08110287663119259</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2406125203447838</v>
+        <v>0.2405449541394381</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06905266186329068</v>
+        <v>0.06902378275939293</v>
       </c>
       <c r="G38" t="n">
-        <v>0.051673979981877</v>
+        <v>0.05179385550749031</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07760142150577827</v>
+        <v>0.07759324817448646</v>
       </c>
       <c r="I38" t="n">
-        <v>0.05806770460708889</v>
+        <v>0.05811075081855913</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06359178678285148</v>
+        <v>0.06361848633173808</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1885042640269349</v>
+        <v>0.1885086231369572</v>
       </c>
       <c r="L38" t="n">
-        <v>0.04113201728169168</v>
+        <v>0.04115108838803926</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02840614046033292</v>
+        <v>0.02840886490409686</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -7518,40 +7518,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.03516907023309165</v>
+        <v>0.03515952034074016</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04064805569497219</v>
+        <v>0.04064858624454728</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08108654430778667</v>
+        <v>0.08099475923129733</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2459081364021735</v>
+        <v>0.2458465926514639</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07019807537836142</v>
+        <v>0.07015722306108005</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05184530447709564</v>
+        <v>0.05196467813148928</v>
       </c>
       <c r="H39" t="n">
-        <v>0.07830752563350273</v>
+        <v>0.0782926702454004</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05786332830726036</v>
+        <v>0.05790948612029256</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06248017070963128</v>
+        <v>0.06250722873796051</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1838890132732893</v>
+        <v>0.1838911354715896</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04022786043150658</v>
+        <v>0.04024802131535973</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02786605533207628</v>
+        <v>0.02786923862952678</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -7703,40 +7703,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03458935639738446</v>
+        <v>0.0345795344283278</v>
       </c>
       <c r="C40" t="n">
         <v>0.04008810823189565</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08107518510534578</v>
+        <v>0.08098575349235618</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2514294842070492</v>
+        <v>0.2513674507182703</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07021363816589719</v>
+        <v>0.07017641807262984</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05155861725285729</v>
+        <v>0.05167286226135846</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07817925507085</v>
+        <v>0.07816684837309422</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05734996037610905</v>
+        <v>0.05739648549269323</v>
       </c>
       <c r="J40" t="n">
-        <v>0.06211309842285024</v>
+        <v>0.06214101349280075</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1798376686987804</v>
+        <v>0.1798366348073007</v>
       </c>
       <c r="L40" t="n">
-        <v>0.03955978968579521</v>
+        <v>0.03957839973242888</v>
       </c>
       <c r="M40" t="n">
-        <v>0.02786802788818877</v>
+        <v>0.02787268039984719</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -7888,40 +7888,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03522106409144977</v>
+        <v>0.03521148767161952</v>
       </c>
       <c r="C41" t="n">
         <v>0.04027136549666337</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08121308038144393</v>
+        <v>0.08112588455877906</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2547257111751779</v>
+        <v>0.2546652285236185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06916745630128425</v>
+        <v>0.06913167073244492</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05077821011673152</v>
+        <v>0.05088909497792383</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07889205862785025</v>
+        <v>0.07887996209753835</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0575069051027197</v>
+        <v>0.05755277111348561</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06117265780931836</v>
+        <v>0.06119937098042378</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1759263926130522</v>
+        <v>0.1759253845688595</v>
       </c>
       <c r="L41" t="n">
-        <v>0.03950323582185843</v>
+        <v>0.03952138061732626</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02781647547428479</v>
+        <v>0.02782101167315175</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -8073,40 +8073,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03531252566210064</v>
+        <v>0.03530318281348576</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04002918902598836</v>
+        <v>0.04002722211049049</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08178778850347726</v>
+        <v>0.08170173595044553</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2586882345507393</v>
+        <v>0.2586282436280543</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06881204696404135</v>
+        <v>0.06877811767170312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05111029921210283</v>
+        <v>0.05122339685323024</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07859007563281818</v>
+        <v>0.07858024105532885</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05693236908579243</v>
+        <v>0.05697318258237319</v>
       </c>
       <c r="J42" t="n">
-        <v>0.06046986660870823</v>
+        <v>0.06049592823905497</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1725102906560204</v>
+        <v>0.1725093071982715</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03924340628459005</v>
+        <v>0.03926110852407087</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02777235510102324</v>
+        <v>0.02777678066089344</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -8258,40 +8258,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03588493319547129</v>
+        <v>0.03587437273250059</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03979230449462905</v>
+        <v>0.03979182447358492</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08153205436526337</v>
+        <v>0.08144949074567429</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2636899601678537</v>
+        <v>0.263632357642559</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06862860867820446</v>
+        <v>0.06859548722615999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05075694518447689</v>
+        <v>0.05086638998253683</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07877097331947032</v>
+        <v>0.07876041285649962</v>
       </c>
       <c r="I43" t="n">
-        <v>0.05761932603125321</v>
+        <v>0.05765916777791538</v>
       </c>
       <c r="J43" t="n">
-        <v>0.05953749012356702</v>
+        <v>0.05956389128099376</v>
       </c>
       <c r="K43" t="n">
-        <v>0.168661154104996</v>
+        <v>0.1686597140418636</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03875017880783894</v>
+        <v>0.03876601950229498</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0275071259124</v>
+        <v>0.02751192612284123</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -8443,40 +8443,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03623989201267979</v>
+        <v>0.0362295771418712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0396977180223767</v>
+        <v>0.03969724916461268</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0820468267003244</v>
+        <v>0.0819661831649118</v>
       </c>
       <c r="E44" t="n">
-        <v>0.267172970537447</v>
+        <v>0.2671167076057638</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06866843926158653</v>
+        <v>0.06863608807586868</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05027890004093128</v>
+        <v>0.05038626846889339</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07961720576713804</v>
+        <v>0.07960642203856542</v>
       </c>
       <c r="I44" t="n">
-        <v>0.05773936478212414</v>
+        <v>0.05777827997653836</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05882523936360998</v>
+        <v>0.05885102654063145</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1651692131113261</v>
+        <v>0.165167806538034</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03836147339490061</v>
+        <v>0.03837694570111349</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02759556141731951</v>
+        <v>0.02760024999495978</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -8628,40 +8628,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03693748843040188</v>
+        <v>0.03692786619038106</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03983653188810343</v>
+        <v>0.03983561548429192</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08141560562378691</v>
+        <v>0.08133679489599734</v>
       </c>
       <c r="E45" t="n">
-        <v>0.263067918352086</v>
+        <v>0.2630129341233956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06789910760596836</v>
+        <v>0.06786749167447137</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05052775695504673</v>
+        <v>0.05063268519146425</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08131709221404994</v>
+        <v>0.08130655357021761</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05877126744145554</v>
+        <v>0.05880929819963307</v>
       </c>
       <c r="J45" t="n">
-        <v>0.06065447727410188</v>
+        <v>0.06067967837891831</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1645659636627561</v>
+        <v>0.1645645890570388</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03887934810698464</v>
+        <v>0.03889446876987451</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02818995584766436</v>
+        <v>0.02819453786672189</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -8813,40 +8813,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03733392471925969</v>
+        <v>0.03732451630679489</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03966586695160716</v>
+        <v>0.03966497091232479</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08033843403694818</v>
+        <v>0.08026137465866504</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2582035756447563</v>
+        <v>0.2581498132878146</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06710572591502412</v>
+        <v>0.06707481255978262</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05005409837167261</v>
+        <v>0.05015669486950308</v>
       </c>
       <c r="H46" t="n">
-        <v>0.08022866922485881</v>
+        <v>0.08021836477311166</v>
       </c>
       <c r="I46" t="n">
-        <v>0.05860679332181923</v>
+        <v>0.05864397895203725</v>
       </c>
       <c r="J46" t="n">
-        <v>0.06119545080856345</v>
+        <v>0.06122143594775195</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1720561189402544</v>
+        <v>0.1720538788420484</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03947769870231111</v>
+        <v>0.0394920353308289</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0283143933030024</v>
+        <v>0.02831887349941421</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -8998,40 +8998,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03722488063441919</v>
+        <v>0.03721567675266014</v>
       </c>
       <c r="C47" t="n">
-        <v>0.03957230876305965</v>
+        <v>0.03957143220289212</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07918143305315549</v>
+        <v>0.07910604887874806</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2531834473884205</v>
+        <v>0.2531308537783687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06609833427271365</v>
+        <v>0.06606809294693393</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0496260156045241</v>
+        <v>0.04972638174370608</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07981781573478094</v>
+        <v>0.07980773529285437</v>
       </c>
       <c r="I47" t="n">
-        <v>0.05988264612477133</v>
+        <v>0.05991902337172374</v>
       </c>
       <c r="J47" t="n">
-        <v>0.06405901704295934</v>
+        <v>0.06408399900773389</v>
       </c>
       <c r="K47" t="n">
-        <v>0.1759812871935436</v>
+        <v>0.1759795340732085</v>
       </c>
       <c r="L47" t="n">
-        <v>0.04014908535329319</v>
+        <v>0.04016311031597364</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02840054942791301</v>
+        <v>0.02840493222875065</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -9183,40 +9183,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03747865412802676</v>
+        <v>0.03747007502851478</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03976970265270047</v>
+        <v>0.03976884474274927</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07782272749305415</v>
+        <v>0.07774894723725113</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2483048771751771</v>
+        <v>0.2482534025781052</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06523204104927534</v>
+        <v>0.06520244315595902</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04924488910870448</v>
+        <v>0.04934311979811663</v>
       </c>
       <c r="H48" t="n">
-        <v>0.079045249173511</v>
+        <v>0.07903538320907223</v>
       </c>
       <c r="I48" t="n">
-        <v>0.06042817427754331</v>
+        <v>0.06046420649549361</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06491890391708816</v>
+        <v>0.06494292539572169</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1806432351441096</v>
+        <v>0.1806415193242072</v>
       </c>
       <c r="L48" t="n">
-        <v>0.04132423548427087</v>
+        <v>0.04133796204349003</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0295348369349108</v>
+        <v>0.02953869752969119</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -9368,40 +9368,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03724891299234558</v>
+        <v>0.03724051262407344</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03955145393574054</v>
+        <v>0.03955061389891333</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07705069790259605</v>
+        <v>0.0769784547354556</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2438051484177066</v>
+        <v>0.2437547462080738</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06446064595471865</v>
+        <v>0.06443166468417975</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04984358514277266</v>
+        <v>0.04993976935948872</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07933643810944672</v>
+        <v>0.07932677768593376</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06140207186683064</v>
+        <v>0.06143735341357365</v>
       </c>
       <c r="J49" t="n">
-        <v>0.06678670792927562</v>
+        <v>0.06681022896043763</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1830079030664704</v>
+        <v>0.183006222992816</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04237859787773096</v>
+        <v>0.04239203846696639</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02942228987318804</v>
+        <v>0.02942607003891051</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -9553,40 +9553,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0376296725419871</v>
+        <v>0.03762144360980214</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03943551170997622</v>
+        <v>0.03943468881675773</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07579093410312251</v>
+        <v>0.07572016528633187</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2401004917198427</v>
+        <v>0.240051118126733</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06390383011534083</v>
+        <v>0.06387544029930273</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04949743853913412</v>
+        <v>0.0495916598126519</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08054273099332675</v>
+        <v>0.08053326772131404</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06380878594860456</v>
+        <v>0.06384334746378138</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06962293798388693</v>
+        <v>0.06964597899400481</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1817873981309626</v>
+        <v>0.1817857523445257</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04287067945058711</v>
+        <v>0.04288384574208304</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02982864483064652</v>
+        <v>0.02983234785012975</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -9738,40 +9738,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.03821858430273583</v>
+        <v>0.03821051994919458</v>
       </c>
       <c r="C51" t="n">
         <v>0.03931049777222233</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07489486099070583</v>
+        <v>0.07482510433257394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.235651700570553</v>
+        <v>0.2356033144493055</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06295437591984032</v>
+        <v>0.06292655390012299</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04929094171488478</v>
+        <v>0.0493865043043487</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08016531924759582</v>
+        <v>0.0801524162819298</v>
       </c>
       <c r="I51" t="n">
-        <v>0.06370597366988569</v>
+        <v>0.06374145682546722</v>
       </c>
       <c r="J51" t="n">
-        <v>0.06975222273744482</v>
+        <v>0.06977359327432915</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1844261204411201</v>
+        <v>0.1844241043527348</v>
       </c>
       <c r="L51" t="n">
-        <v>0.04595350900183464</v>
+        <v>0.04596278300840709</v>
       </c>
       <c r="M51" t="n">
-        <v>0.03099856857724642</v>
+        <v>0.03100582649543356</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -9923,40 +9923,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0381645531340094</v>
+        <v>0.03815664690504737</v>
       </c>
       <c r="C52" t="n">
         <v>0.03926510020552242</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07416398546676992</v>
+        <v>0.07409559658624845</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2314473419455886</v>
+        <v>0.2313999045718164</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06212793780644049</v>
+        <v>0.06210066131652153</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04891386203077025</v>
+        <v>0.04900755084397018</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07952757119460352</v>
+        <v>0.0795149212282643</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06356608085463172</v>
+        <v>0.06360086826206461</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07133988048153678</v>
+        <v>0.07136083198828613</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1886109981179222</v>
+        <v>0.1886090215606817</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04728834135617917</v>
+        <v>0.0472974335194855</v>
       </c>
       <c r="M52" t="n">
-        <v>0.03139089147079973</v>
+        <v>0.03139800707686555</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -10108,40 +10108,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03818432630855768</v>
+        <v>0.03817657212246031</v>
       </c>
       <c r="C53" t="n">
         <v>0.03959209879453423</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07404355991582055</v>
+        <v>0.07397648620607836</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2275609362714461</v>
+        <v>0.227514411154862</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06152675271745452</v>
+        <v>0.06150000077541861</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04866721049358496</v>
+        <v>0.04875909759883873</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07927841095015144</v>
+        <v>0.07926600425239566</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06453382608601253</v>
+        <v>0.06456794450484094</v>
       </c>
       <c r="J53" t="n">
-        <v>0.07382372873996026</v>
+        <v>0.07384427733311828</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1904408720047518</v>
+        <v>0.1904389334582274</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04726253968204736</v>
+        <v>0.04727145699605932</v>
       </c>
       <c r="M53" t="n">
-        <v>0.03135754086843782</v>
+        <v>0.03136451963592545</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -10293,40 +10293,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03777274727799539</v>
+        <v>0.03776513939729608</v>
       </c>
       <c r="C54" t="n">
         <v>0.03910640876458288</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07341566835422141</v>
+        <v>0.07334986018617246</v>
       </c>
       <c r="E54" t="n">
-        <v>0.223646586553147</v>
+        <v>0.2236009392689511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06084744943897586</v>
+        <v>0.06082120225056327</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04852344349417788</v>
+        <v>0.04861435766853453</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07903104509837561</v>
+        <v>0.07902001367136162</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06447602813850756</v>
+        <v>0.06450722044937469</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07486192647515856</v>
+        <v>0.07488056578287185</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1953551605966556</v>
+        <v>0.1953452703517466</v>
       </c>
       <c r="L54" t="n">
-        <v>0.04823700678584919</v>
+        <v>0.04825488530549255</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03144603368845653</v>
+        <v>0.03145364156915582</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -10478,40 +10478,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03751903150100767</v>
+        <v>0.03751156450698798</v>
       </c>
       <c r="C55" t="n">
         <v>0.03883620924608001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07287151468720389</v>
+        <v>0.07280692518893361</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2200407399193714</v>
+        <v>0.2199963113049543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06026797548137844</v>
+        <v>0.06024221435201053</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04842158946914899</v>
+        <v>0.04851007334828226</v>
       </c>
       <c r="H55" t="n">
-        <v>0.07901311726839438</v>
+        <v>0.07900154342766387</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06430575249752282</v>
+        <v>0.06433748722210648</v>
       </c>
       <c r="J55" t="n">
-        <v>0.07571979955601253</v>
+        <v>0.07573809369136077</v>
       </c>
       <c r="K55" t="n">
-        <v>0.1997077418540696</v>
+        <v>0.199697661412143</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04902940278235131</v>
+        <v>0.04904657686859658</v>
       </c>
       <c r="M55" t="n">
-        <v>0.03141775068752348</v>
+        <v>0.03142596438094513</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -10663,40 +10663,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03747578402928094</v>
+        <v>0.03746845279878888</v>
       </c>
       <c r="C56" t="n">
         <v>0.03868360425284681</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07181086891576599</v>
+        <v>0.07174745377200972</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2163317821671484</v>
+        <v>0.2162881613457207</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05930745531156813</v>
+        <v>0.05928216256637055</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04776993132469837</v>
+        <v>0.04785680640602921</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07803251767284751</v>
+        <v>0.07802115426558483</v>
       </c>
       <c r="I56" t="n">
-        <v>0.06469041130035869</v>
+        <v>0.06472156902994991</v>
       </c>
       <c r="J56" t="n">
-        <v>0.07786060031780884</v>
+        <v>0.07787856183251438</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2032279407856513</v>
+        <v>0.203218043624487</v>
       </c>
       <c r="L56" t="n">
-        <v>0.04994364116559234</v>
+        <v>0.04996050299572406</v>
       </c>
       <c r="M56" t="n">
-        <v>0.03221012772836325</v>
+        <v>0.0322181920819045</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -10848,40 +10848,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03722599198748873</v>
+        <v>0.0372184316560438</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03838812293530949</v>
+        <v>0.03838848295109257</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07113155840752058</v>
+        <v>0.07106927567704568</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2129280947676746</v>
+        <v>0.2128852528894867</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05860984945580014</v>
+        <v>0.0585850083667668</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04771289173317358</v>
+        <v>0.04779821547376637</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07763740362377487</v>
+        <v>0.0776269631660652</v>
       </c>
       <c r="I57" t="n">
-        <v>0.06454794978211845</v>
+        <v>0.06458035120259673</v>
       </c>
       <c r="J57" t="n">
-        <v>0.07830667296454276</v>
+        <v>0.07832359370634809</v>
       </c>
       <c r="K57" t="n">
-        <v>0.2074245334915483</v>
+        <v>0.2074133730022724</v>
       </c>
       <c r="L57" t="n">
-        <v>0.05088607084534586</v>
+        <v>0.05090299158715118</v>
       </c>
       <c r="M57" t="n">
-        <v>0.03253606638115015</v>
+        <v>0.03254326669681199</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -11033,40 +11033,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.03710486878271059</v>
+        <v>0.0370985021878096</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03845140360427085</v>
+        <v>0.03845281840313774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07064727401859824</v>
+        <v>0.07058431546902175</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2099932903163738</v>
+        <v>0.2099512000500839</v>
       </c>
       <c r="F58" t="n">
-        <v>0.05793000070386244</v>
+        <v>0.05790453432425846</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04762778905490374</v>
+        <v>0.04770984738918323</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07741991619438912</v>
+        <v>0.07740753670430385</v>
       </c>
       <c r="I58" t="n">
-        <v>0.06411585504961169</v>
+        <v>0.06415051762185044</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07799503193377892</v>
+        <v>0.0780123632198983</v>
       </c>
       <c r="K58" t="n">
-        <v>0.2119266129679757</v>
+        <v>0.2119156482767573</v>
       </c>
       <c r="L58" t="n">
-        <v>0.05127903123062389</v>
+        <v>0.0512970699161767</v>
       </c>
       <c r="M58" t="n">
-        <v>0.03271085720187446</v>
+        <v>0.03271757749649219</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -11218,40 +11218,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03657879533852557</v>
+        <v>0.03657253851250218</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03788647197741425</v>
+        <v>0.03788786238319723</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06975874374056697</v>
+        <v>0.06969687068322454</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2076904734262171</v>
+        <v>0.2076491088541735</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05713351162970157</v>
+        <v>0.05710848432560801</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04743369328621712</v>
+        <v>0.04751433682162971</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07714145084672236</v>
+        <v>0.07712893719467558</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06472165119029163</v>
+        <v>0.06475606373342029</v>
       </c>
       <c r="J59" t="n">
-        <v>0.079138768753967</v>
+        <v>0.07915580122480845</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2160784439134639</v>
+        <v>0.2160676682686459</v>
       </c>
       <c r="L59" t="n">
-        <v>0.05092639261305216</v>
+        <v>0.0509441202867851</v>
       </c>
       <c r="M59" t="n">
-        <v>0.03237073223634952</v>
+        <v>0.03237733666381865</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -11403,40 +11403,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03626737979243858</v>
+        <v>0.03625883704504317</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03734444938405083</v>
+        <v>0.03734752477311317</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06870248310329993</v>
+        <v>0.06864200045174049</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2049948418891226</v>
+        <v>0.2049541784115206</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05647166080235533</v>
+        <v>0.05644774110964821</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04759506283874129</v>
+        <v>0.04767433953457062</v>
       </c>
       <c r="H60" t="n">
-        <v>0.07711879783724973</v>
+        <v>0.0771075214106878</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06443179282539069</v>
+        <v>0.06446220500611831</v>
       </c>
       <c r="J60" t="n">
-        <v>0.07914137871058505</v>
+        <v>0.07916051446475074</v>
       </c>
       <c r="K60" t="n">
-        <v>0.2204496970570919</v>
+        <v>0.2204384206305299</v>
       </c>
       <c r="L60" t="n">
-        <v>0.05119566001095522</v>
+        <v>0.05121206208595439</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03278877305303098</v>
+        <v>0.03279663238063475</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -11588,40 +11588,40 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03590787820138035</v>
+        <v>0.03589947783310821</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03716793344220211</v>
+        <v>0.03717095757478008</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0686679704038225</v>
+        <v>0.06860849579645571</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2079884142120791</v>
+        <v>0.2079484284591036</v>
       </c>
       <c r="F61" t="n">
-        <v>0.05640376874122161</v>
+        <v>0.05638024771005961</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04808135588664207</v>
+        <v>0.04815931130420758</v>
       </c>
       <c r="H61" t="n">
-        <v>0.07763183537966305</v>
+        <v>0.07762074689354381</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06426483337029495</v>
+        <v>0.06429473868134379</v>
       </c>
       <c r="J61" t="n">
-        <v>0.07881964745334435</v>
+        <v>0.07883846427827396</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2173884263086094</v>
+        <v>0.2173773378224901</v>
       </c>
       <c r="L61" t="n">
-        <v>0.05075804923287837</v>
+        <v>0.05077417793996089</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03243751806079179</v>
+        <v>0.03244524639960216</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -11773,40 +11773,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03548844368222349</v>
+        <v>0.03548018102490662</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03679096898165393</v>
+        <v>0.036793943538288</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06856749649084944</v>
+        <v>0.06850899687704604</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2112209530413354</v>
+        <v>0.2111816227925072</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05619036633647986</v>
+        <v>0.05616723089599265</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0483067997373136</v>
+        <v>0.04838347719721409</v>
       </c>
       <c r="H62" t="n">
-        <v>0.07749744601262336</v>
+        <v>0.0774865393049651</v>
       </c>
       <c r="I62" t="n">
-        <v>0.06463215806397346</v>
+        <v>0.0646615731240215</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0789024282627829</v>
+        <v>0.07892093661517269</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2145385752072027</v>
+        <v>0.2145276684995444</v>
       </c>
       <c r="L62" t="n">
-        <v>0.05034833710716435</v>
+        <v>0.05036420140921273</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0320845593739682</v>
+        <v>0.03209216101869972</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -11958,40 +11958,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03573386592752097</v>
+        <v>0.03575467716246616</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03672792757169958</v>
+        <v>0.03670581563457032</v>
       </c>
       <c r="D63" t="n">
-        <v>0.06856488975573463</v>
+        <v>0.06849107490678844</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2158235623501347</v>
+        <v>0.215775111193778</v>
       </c>
       <c r="F63" t="n">
-        <v>0.05601311367941984</v>
+        <v>0.05599457867329678</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04794745943597651</v>
+        <v>0.04801997358273864</v>
       </c>
       <c r="H63" t="n">
-        <v>0.07737194424410018</v>
+        <v>0.07736088827553554</v>
       </c>
       <c r="I63" t="n">
-        <v>0.06400365237173287</v>
+        <v>0.06403649510188075</v>
       </c>
       <c r="J63" t="n">
-        <v>0.07791693845922722</v>
+        <v>0.07793937557190249</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2115988816562621</v>
+        <v>0.2115852242833293</v>
       </c>
       <c r="L63" t="n">
-        <v>0.04988290428587873</v>
+        <v>0.04989916306317966</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03189972106441662</v>
+        <v>0.03192248335263792</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -12143,40 +12143,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03559004026736532</v>
+        <v>0.03561052116524788</v>
       </c>
       <c r="C64" t="n">
-        <v>0.03646271852558016</v>
+        <v>0.03644191761366818</v>
       </c>
       <c r="D64" t="n">
-        <v>0.06872813304135253</v>
+        <v>0.06865612988473414</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2196041874475777</v>
+        <v>0.2195328243190181</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0563816717724905</v>
+        <v>0.05630166826513675</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04774897331499013</v>
+        <v>0.04779409529313765</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07752019848550161</v>
+        <v>0.07752339862579576</v>
       </c>
       <c r="I64" t="n">
-        <v>0.06355478624182884</v>
+        <v>0.0636347897491826</v>
       </c>
       <c r="J64" t="n">
-        <v>0.07690417147887764</v>
+        <v>0.07697265448117245</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2088491559469967</v>
+        <v>0.2088363553858201</v>
       </c>
       <c r="L64" t="n">
-        <v>0.04954681213224388</v>
+        <v>0.04956409288983229</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03165098757929548</v>
+        <v>0.03167338856135453</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -12328,40 +12328,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03530170762686236</v>
+        <v>0.03532186851071551</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03602907451462672</v>
+        <v>0.03600859861696337</v>
       </c>
       <c r="D65" t="n">
-        <v>0.068696321646741</v>
+        <v>0.06862544353944477</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2229932360234673</v>
+        <v>0.2229226729299812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05681778089151428</v>
+        <v>0.05673934245277313</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04768773563033003</v>
+        <v>0.047732152577569</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07743133958992762</v>
+        <v>0.07743448972802967</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0639068516763775</v>
+        <v>0.06398560512892885</v>
       </c>
       <c r="J65" t="n">
-        <v>0.07688384558779057</v>
+        <v>0.07695125854317453</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2063217601459648</v>
+        <v>0.2063091595935566</v>
       </c>
       <c r="L65" t="n">
-        <v>0.04888510312292091</v>
+        <v>0.048902113868672</v>
       </c>
       <c r="M65" t="n">
-        <v>0.03131678292776355</v>
+        <v>0.03133883389447793</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -12513,40 +12513,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03521175906813293</v>
+        <v>0.03523254028687387</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03602470793858064</v>
+        <v>0.03600578772450307</v>
       </c>
       <c r="D66" t="n">
-        <v>0.06894401942888868</v>
+        <v>0.06887547242378798</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2271129769406014</v>
+        <v>0.2270481519448274</v>
       </c>
       <c r="F66" t="n">
-        <v>0.05799169681752694</v>
+        <v>0.05790919227745098</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04764823289853027</v>
+        <v>0.04768328181969036</v>
       </c>
       <c r="H66" t="n">
-        <v>0.07717586338985101</v>
+        <v>0.07718640908294343</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06351608916073342</v>
+        <v>0.06359363102170706</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0762543559140402</v>
+        <v>0.07631949107725806</v>
       </c>
       <c r="K66" t="n">
-        <v>0.2035117157997745</v>
+        <v>0.2034996192694626</v>
       </c>
       <c r="L66" t="n">
-        <v>0.04832160641922542</v>
+        <v>0.04833835546119573</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0309851073101814</v>
+        <v>0.03100619869636623</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -12698,40 +12698,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03527513191632867</v>
+        <v>0.03529529280018182</v>
       </c>
       <c r="C67" t="n">
-        <v>0.03577762667297153</v>
+        <v>0.03575929859674139</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06818380372340978</v>
+        <v>0.06811598984135828</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2242110221384833</v>
+        <v>0.224147179339615</v>
       </c>
       <c r="F67" t="n">
-        <v>0.05775635022021183</v>
+        <v>0.0576750957489249</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0476972910492396</v>
+        <v>0.04773180892613969</v>
       </c>
       <c r="H67" t="n">
-        <v>0.07723237495822725</v>
+        <v>0.07724276086809101</v>
       </c>
       <c r="I67" t="n">
-        <v>0.06330945185000547</v>
+        <v>0.06338612430223486</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07620447534965387</v>
+        <v>0.076268012680585</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2074359449009154</v>
+        <v>0.2074243371193029</v>
       </c>
       <c r="L67" t="n">
-        <v>0.04863477214841098</v>
+        <v>0.04865126741701811</v>
       </c>
       <c r="M67" t="n">
-        <v>0.03101415966075953</v>
+        <v>0.03103523694842418</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -12883,40 +12883,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03516629870546062</v>
+        <v>0.03518615868059954</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03561645814194285</v>
+        <v>0.03559840361908929</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06740385289535869</v>
+        <v>0.06733705116080051</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2214667073094037</v>
+        <v>0.2214038173881304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.05735380274892147</v>
+        <v>0.05727376103093733</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04746293331230984</v>
+        <v>0.0474969359970174</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07703714447259279</v>
+        <v>0.07704737536887647</v>
       </c>
       <c r="I68" t="n">
-        <v>0.06391932998462055</v>
+        <v>0.0639948580718913</v>
       </c>
       <c r="J68" t="n">
-        <v>0.07685990923991362</v>
+        <v>0.07692249825247265</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2109141396102089</v>
+        <v>0.2109027050790683</v>
       </c>
       <c r="L68" t="n">
-        <v>0.04876195623162388</v>
+        <v>0.04877820530219209</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03088797860659405</v>
+        <v>0.03090874130787565</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -13068,40 +13068,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0355685428543305</v>
+        <v>0.03558781428742542</v>
       </c>
       <c r="C69" t="n">
-        <v>0.03561864858037729</v>
+        <v>0.03560085956521275</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06674497786453547</v>
+        <v>0.06667945499201273</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2189000577550026</v>
+        <v>0.2188377962019267</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05685458191663593</v>
+        <v>0.05677571728273979</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04712665897390589</v>
+        <v>0.04716016161913244</v>
       </c>
       <c r="H69" t="n">
-        <v>0.07650729290325028</v>
+        <v>0.07651737334517686</v>
       </c>
       <c r="I69" t="n">
-        <v>0.06355273909325831</v>
+        <v>0.06362715647336332</v>
       </c>
       <c r="J69" t="n">
-        <v>0.07760517162248863</v>
+        <v>0.07766684020839239</v>
       </c>
       <c r="K69" t="n">
-        <v>0.21397131462008</v>
+        <v>0.2139600482438091</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04951928151353685</v>
+        <v>0.04953529162718494</v>
       </c>
       <c r="M69" t="n">
-        <v>0.03105546970708608</v>
+        <v>0.03107622355811138</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -13253,40 +13253,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03536832619959451</v>
+        <v>0.03538731833655762</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0353151482160978</v>
+        <v>0.03529790919946974</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06606663201332137</v>
+        <v>0.06600205874764681</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2163388477733472</v>
+        <v>0.2162774885616203</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05633827508737113</v>
+        <v>0.05626055341918364</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04688311274696717</v>
+        <v>0.04691583765988823</v>
       </c>
       <c r="H70" t="n">
-        <v>0.07661486488263297</v>
+        <v>0.0766250914179208</v>
       </c>
       <c r="I70" t="n">
-        <v>0.06341036251898849</v>
+        <v>0.06348428575978336</v>
       </c>
       <c r="J70" t="n">
-        <v>0.0784229163215211</v>
+        <v>0.07848398334652557</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2171937861234097</v>
+        <v>0.2171818064677868</v>
       </c>
       <c r="L70" t="n">
-        <v>0.05025991469900823</v>
+        <v>0.05027218654135363</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03114535149916624</v>
+        <v>0.03116901862368951</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -13438,40 +13438,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03518563853839352</v>
+        <v>0.03520435935911431</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03496934105591189</v>
+        <v>0.03495234831094995</v>
       </c>
       <c r="D71" t="n">
-        <v>0.06524926052758152</v>
+        <v>0.06518560973713088</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2138928650632044</v>
+        <v>0.2138323824116449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05577422114185486</v>
+        <v>0.0556976097832129</v>
       </c>
       <c r="G71" t="n">
-        <v>0.04649819848102141</v>
+        <v>0.04653045589518644</v>
       </c>
       <c r="H71" t="n">
-        <v>0.07638267661654287</v>
+        <v>0.07639275705846944</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06402347878931013</v>
+        <v>0.06409634598380794</v>
       </c>
       <c r="J71" t="n">
-        <v>0.07942812212887412</v>
+        <v>0.0794883167678071</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2200779362167238</v>
+        <v>0.2200661276990383</v>
       </c>
       <c r="L71" t="n">
-        <v>0.05108739167125087</v>
+        <v>0.05109948820156276</v>
       </c>
       <c r="M71" t="n">
-        <v>0.03113963716169317</v>
+        <v>0.03116296618443752</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -13623,40 +13623,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.03519976738315419</v>
+        <v>0.03521822453034369</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03483346400047023</v>
+        <v>0.03481671058994438</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06460143494380935</v>
+        <v>0.06453868064336504</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2110844539424608</v>
+        <v>0.2110248231592332</v>
       </c>
       <c r="F72" t="n">
-        <v>0.05519964812158774</v>
+        <v>0.05512411579616608</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04662502544956641</v>
+        <v>0.04665682853395448</v>
       </c>
       <c r="H72" t="n">
-        <v>0.07599006267195317</v>
+        <v>0.07600000113582445</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06387876664231269</v>
+        <v>0.06395060753829646</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08122876895655499</v>
+        <v>0.08128811578367201</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2211129319007937</v>
+        <v>0.2211012897002588</v>
       </c>
       <c r="L72" t="n">
-        <v>0.05221924478464911</v>
+        <v>0.05223117094129463</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03210549764586187</v>
+        <v>0.03212849809082109</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -13808,40 +13808,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03538291118682643</v>
+        <v>0.03540111198474941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03496709295735525</v>
+        <v>0.0349505722330867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.06430509913554611</v>
+        <v>0.06424321642260797</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2088547161907578</v>
+        <v>0.2087959136128528</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05510753591437449</v>
+        <v>0.05503305264902814</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0469776595005925</v>
+        <v>0.04700902087547518</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07603761348897535</v>
+        <v>0.0760474139186262</v>
       </c>
       <c r="I73" t="n">
-        <v>0.06391196190040971</v>
+        <v>0.06398280500617147</v>
       </c>
       <c r="J73" t="n">
-        <v>0.08198647428703275</v>
+        <v>0.08204499685266202</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2218254448275012</v>
+        <v>0.221813964324196</v>
       </c>
       <c r="L73" t="n">
-        <v>0.05297580245917981</v>
+        <v>0.05298756297476082</v>
       </c>
       <c r="M73" t="n">
-        <v>0.03210676756068986</v>
+        <v>0.03212944855502465</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -13993,40 +13993,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.03542681557734834</v>
+        <v>0.03544476704927237</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03500509407537906</v>
+        <v>0.03498879966240186</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06373076327173033</v>
+        <v>0.0636697282671886</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2061933682843889</v>
+        <v>0.2061353712212497</v>
       </c>
       <c r="F74" t="n">
-        <v>0.05457302700205172</v>
+        <v>0.05449956405540874</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04690443437259467</v>
+        <v>0.04693536613960225</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0762874036178568</v>
+        <v>0.07629706979504666</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06654969671678626</v>
+        <v>0.06661956936904442</v>
       </c>
       <c r="J74" t="n">
-        <v>0.08307858353496518</v>
+        <v>0.08313630442161324</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2208127708428327</v>
+        <v>0.220801447606696</v>
       </c>
       <c r="L74" t="n">
-        <v>0.05389501371630543</v>
+        <v>0.05390661312893327</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03233225799413567</v>
+        <v>0.03235462828991793</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -14178,40 +14178,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03519082276567004</v>
+        <v>0.03520853165013565</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03507639612758461</v>
+        <v>0.03506004946500098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06356290767895373</v>
+        <v>0.06350296991614707</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2039905472699166</v>
+        <v>0.2039338788396267</v>
       </c>
       <c r="F75" t="n">
-        <v>0.05445863395299898</v>
+        <v>0.05438561886012543</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04671331277649698</v>
+        <v>0.04674355410227671</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07592152948093353</v>
+        <v>0.07593079258973091</v>
       </c>
       <c r="I75" t="n">
-        <v>0.06660720114077909</v>
+        <v>0.06667585712363035</v>
       </c>
       <c r="J75" t="n">
-        <v>0.08327997964295619</v>
+        <v>0.0833377378507517</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2230646505056295</v>
+        <v>0.2230534802861974</v>
       </c>
       <c r="L75" t="n">
-        <v>0.05493840849982863</v>
+        <v>0.05494985116363717</v>
       </c>
       <c r="M75" t="n">
-        <v>0.03232552525913547</v>
+        <v>0.03234759325362337</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -14363,40 +14363,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03502510030039717</v>
+        <v>0.03504284187818794</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03475010584464023</v>
+        <v>0.03473397713755771</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06309738378930532</v>
+        <v>0.06303824519666942</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2017582978837792</v>
+        <v>0.2017053419621916</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05419191817369273</v>
+        <v>0.05411799493289786</v>
       </c>
       <c r="G76" t="n">
-        <v>0.04666975800219082</v>
+        <v>0.04670819808740415</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07582158961848888</v>
+        <v>0.07582105199491945</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0666862899269504</v>
+        <v>0.06675376168491226</v>
       </c>
       <c r="J76" t="n">
-        <v>0.08489828834096087</v>
+        <v>0.08495420119218026</v>
       </c>
       <c r="K76" t="n">
-        <v>0.2251755676968878</v>
+        <v>0.225163471166576</v>
       </c>
       <c r="L76" t="n">
-        <v>0.05518894108317709</v>
+        <v>0.05520265048419723</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0321982755724011</v>
+        <v>0.03221978051517779</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -14548,40 +14548,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03507808098096495</v>
+        <v>0.03509558911694267</v>
       </c>
       <c r="C77" t="n">
-        <v>0.03502104690164354</v>
+        <v>0.03500513041439105</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06313646053400876</v>
+        <v>0.06307810008074964</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1994725806674101</v>
+        <v>0.1994203215342645</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05389030781425247</v>
+        <v>0.05381735724767858</v>
       </c>
       <c r="G77" t="n">
-        <v>0.04652230059028946</v>
+        <v>0.04656023488490788</v>
       </c>
       <c r="H77" t="n">
-        <v>0.07569058985440659</v>
+        <v>0.0756900593048315</v>
       </c>
       <c r="I77" t="n">
-        <v>0.06702140979755289</v>
+        <v>0.06708799376922579</v>
       </c>
       <c r="J77" t="n">
-        <v>0.08497520741835637</v>
+        <v>0.08503038457416499</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2273195362147835</v>
+        <v>0.2273075988493441</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05547532466981247</v>
+        <v>0.05548885368397709</v>
       </c>
       <c r="M77" t="n">
-        <v>0.03218154557580015</v>
+        <v>0.03220276755880346</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -14733,40 +14733,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0348495278032989</v>
+        <v>0.03486654673122688</v>
       </c>
       <c r="C78" t="n">
-        <v>0.03469661928160749</v>
+        <v>0.03468090950198166</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06263410587920175</v>
+        <v>0.0625770270132279</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1973925955095689</v>
+        <v>0.1973410150664641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05350174915304651</v>
+        <v>0.05342974599642812</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04646350605101437</v>
+        <v>0.04650094769245593</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07560698006455148</v>
+        <v>0.07560750372387234</v>
       </c>
       <c r="I78" t="n">
-        <v>0.06688988517983901</v>
+        <v>0.06695743723223008</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0851161096720662</v>
+        <v>0.08516769011517102</v>
       </c>
       <c r="K78" t="n">
-        <v>0.2304933630108526</v>
+        <v>0.2304805333574915</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05596425710939532</v>
+        <v>0.05597813408139813</v>
       </c>
       <c r="M78" t="n">
-        <v>0.03233334476656184</v>
+        <v>0.03235455296905671</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -14918,40 +14918,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03452577207138607</v>
+        <v>0.03454153891645071</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03433476062052099</v>
+        <v>0.03431925224832626</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06232556312191803</v>
+        <v>0.06226895756340727</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1952653973580971</v>
+        <v>0.1952147366755943</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05307275132480269</v>
+        <v>0.05300141281270694</v>
       </c>
       <c r="G79" t="n">
-        <v>0.046604467755251</v>
+        <v>0.04664194632138827</v>
       </c>
       <c r="H79" t="n">
         <v>0.07514245732225208</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0666903944761246</v>
+        <v>0.06675036018194422</v>
       </c>
       <c r="J79" t="n">
-        <v>0.08619243098386664</v>
+        <v>0.08624774417802784</v>
       </c>
       <c r="K79" t="n">
-        <v>0.2330887663038224</v>
+        <v>0.2330786858618959</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05643341557940054</v>
+        <v>0.05644814853298553</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03233909159192924</v>
+        <v>0.03236002789439212</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -15103,40 +15103,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03464992411596438</v>
+        <v>0.03466549138071175</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03455473412005015</v>
+        <v>0.03453942205636422</v>
       </c>
       <c r="D80" t="n">
-        <v>0.061783666570626</v>
+        <v>0.06172777753817234</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1930874198891968</v>
+        <v>0.1930374004811561</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05265486940213282</v>
+        <v>0.05258443390917752</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04653412714474162</v>
+        <v>0.04657113129864929</v>
       </c>
       <c r="H80" t="n">
         <v>0.07499389431460524</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06666234526202641</v>
+        <v>0.06672155190827869</v>
       </c>
       <c r="J80" t="n">
-        <v>0.08652591987860596</v>
+        <v>0.08658053290575246</v>
       </c>
       <c r="K80" t="n">
-        <v>0.235620759993865</v>
+        <v>0.2356108071524691</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05638335690965806</v>
+        <v>0.05639790337015969</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03252256806786511</v>
+        <v>0.03254323935384112</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -15288,40 +15288,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.03455172274752525</v>
+        <v>0.03456709542146328</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03429895566621641</v>
+        <v>0.03428358299227838</v>
       </c>
       <c r="D81" t="n">
-        <v>0.06117366585351102</v>
+        <v>0.06111847543396302</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1909321384649503</v>
+        <v>0.1908829963105582</v>
       </c>
       <c r="F81" t="n">
-        <v>0.05236285558758896</v>
+        <v>0.05229304852724743</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04647537348037338</v>
+        <v>0.04651166307130904</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07516884740227012</v>
+        <v>0.07516909941331829</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0663923106388984</v>
+        <v>0.06645052519102437</v>
       </c>
       <c r="J81" t="n">
-        <v>0.08632739259289127</v>
+        <v>0.08638258301243927</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2388190258260922</v>
+        <v>0.2388081893510212</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05679799802423338</v>
+        <v>0.05681286667607508</v>
       </c>
       <c r="M81" t="n">
-        <v>0.03253639039535493</v>
+        <v>0.03255655127920808</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -15473,40 +15473,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03447685368748788</v>
+        <v>0.03449203657532791</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03439222775526479</v>
+        <v>0.03437704486742477</v>
       </c>
       <c r="D82" t="n">
-        <v>0.06120570548035048</v>
+        <v>0.06115144532380744</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1939081275989806</v>
+        <v>0.1938605877370553</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05307041549590423</v>
+        <v>0.05300047465191985</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0464902514659576</v>
+        <v>0.04652534633785012</v>
       </c>
       <c r="H82" t="n">
-        <v>0.07523394714513174</v>
+        <v>0.0752346938445337</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06582802367833583</v>
+        <v>0.06588551953228741</v>
       </c>
       <c r="J82" t="n">
-        <v>0.08564741700498373</v>
+        <v>0.08570217496112807</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2362014306262742</v>
+        <v>0.2361904790350453</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05638128064423233</v>
+        <v>0.05639596573247104</v>
       </c>
       <c r="M82" t="n">
-        <v>0.03245578730615994</v>
+        <v>0.03247569929021244</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -15658,40 +15658,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.03458968421663411</v>
+        <v>0.03460468194730535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.03448273318643753</v>
+        <v>0.03446773545576629</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06150643107608472</v>
+        <v>0.06145283262876781</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1967441647763789</v>
+        <v>0.1966972046688673</v>
       </c>
       <c r="F83" t="n">
-        <v>0.05290265095953514</v>
+        <v>0.05283356305267252</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04622226833546334</v>
+        <v>0.04625693522111327</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07469435362485316</v>
+        <v>0.07469533708260209</v>
       </c>
       <c r="I83" t="n">
-        <v>0.06556171910381429</v>
+        <v>0.065618267924378</v>
       </c>
       <c r="J83" t="n">
-        <v>0.08532356497533242</v>
+        <v>0.08537765515152379</v>
       </c>
       <c r="K83" t="n">
-        <v>0.2344929611470264</v>
+        <v>0.2344821431117882</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05605389545155708</v>
+        <v>0.05606840145335386</v>
       </c>
       <c r="M83" t="n">
-        <v>0.03242042228692282</v>
+        <v>0.0324400914419015</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -15843,40 +15843,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.03499370761811788</v>
+        <v>0.03501362559975593</v>
       </c>
       <c r="C84" t="n">
-        <v>0.03495702938363806</v>
+        <v>0.0349385688152906</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06207609009048836</v>
+        <v>0.06202459482088755</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1999932958988633</v>
+        <v>0.1999398574115417</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0531236860508302</v>
+        <v>0.05306223179041036</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04601612433484265</v>
+        <v>0.04604964484052619</v>
       </c>
       <c r="H84" t="n">
-        <v>0.07441479391083011</v>
+        <v>0.0744160084219056</v>
       </c>
       <c r="I84" t="n">
-        <v>0.06505965799853919</v>
+        <v>0.06511431099693628</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0844792042912077</v>
+        <v>0.08453385728960477</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2318295176229201</v>
+        <v>0.2318173725121651</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0555400772866268</v>
+        <v>0.05555392271288739</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03218041416285088</v>
+        <v>0.03219960343784363</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -16028,40 +16028,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.03557867976932109</v>
+        <v>0.03560124075839485</v>
       </c>
       <c r="C85" t="n">
-        <v>0.03518122234478759</v>
+        <v>0.03516034142936826</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06266890740490064</v>
+        <v>0.06261754515317952</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2026387236816462</v>
+        <v>0.2025856813562707</v>
       </c>
       <c r="F85" t="n">
-        <v>0.05318369157303856</v>
+        <v>0.05312320892147912</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04572176444215315</v>
+        <v>0.04575440587315348</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07429093691467434</v>
+        <v>0.0742923769778067</v>
       </c>
       <c r="I85" t="n">
-        <v>0.06475891903101032</v>
+        <v>0.06481292139847411</v>
       </c>
       <c r="J85" t="n">
-        <v>0.08363190642277757</v>
+        <v>0.08368614880076343</v>
       </c>
       <c r="K85" t="n">
-        <v>0.2293516547765454</v>
+        <v>0.2293396542504423</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05511385619145543</v>
+        <v>0.05512729678069087</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03214412919862407</v>
+        <v>0.03216357005091103</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -16213,40 +16213,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.03593760562227754</v>
+        <v>0.03595990118795044</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03522485908135154</v>
+        <v>0.03520422382376067</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06308838650074655</v>
+        <v>0.06303762851081038</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2047598660842938</v>
+        <v>0.2047072105994068</v>
       </c>
       <c r="F86" t="n">
-        <v>0.05296169313474467</v>
+        <v>0.05290215923066068</v>
       </c>
       <c r="G86" t="n">
-        <v>0.04547228056360344</v>
+        <v>0.04550453797776847</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07463108547384599</v>
+        <v>0.07463250859505915</v>
       </c>
       <c r="I86" t="n">
-        <v>0.06480917723432995</v>
+        <v>0.06486254427982358</v>
       </c>
       <c r="J86" t="n">
-        <v>0.08306521334365886</v>
+        <v>0.08311881757602135</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2269617429439871</v>
+        <v>0.2269498836005441</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05486179714118667</v>
+        <v>0.05487507960584286</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0320769149578341</v>
+        <v>0.03209612709421181</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -16398,40 +16398,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.03576118823560853</v>
+        <v>0.03578322455051779</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03517605374610321</v>
+        <v>0.03515565843336804</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06326157152683062</v>
+        <v>0.06321116931719775</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2084480667353387</v>
+        <v>0.2083964923812958</v>
       </c>
       <c r="F87" t="n">
-        <v>0.05321863822137869</v>
+        <v>0.05314830955677469</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04577809993515697</v>
+        <v>0.04566955936278479</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0744257781749524</v>
+        <v>0.07458565867248551</v>
       </c>
       <c r="I87" t="n">
-        <v>0.06443559136795347</v>
+        <v>0.06448200828659212</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08242800806247812</v>
+        <v>0.08248098898981313</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2244539330836822</v>
+        <v>0.2244419772106995</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05441539766405685</v>
+        <v>0.05442876011033161</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03188373452710772</v>
+        <v>0.03190225440878677</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -16583,40 +16583,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03602240129103812</v>
+        <v>0.03605669796701819</v>
       </c>
       <c r="C88" t="n">
-        <v>0.03530217109545668</v>
+        <v>0.03527552165128298</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06365949703924675</v>
+        <v>0.06360828375957381</v>
       </c>
       <c r="E88" t="n">
-        <v>0.211428115905153</v>
+        <v>0.211373890079617</v>
       </c>
       <c r="F88" t="n">
-        <v>0.05384485435151822</v>
+        <v>0.05377626099955808</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04559210082666576</v>
+        <v>0.04549060120450853</v>
       </c>
       <c r="H88" t="n">
-        <v>0.07447268281344903</v>
+        <v>0.07463906803881179</v>
       </c>
       <c r="I88" t="n">
-        <v>0.06427081211516175</v>
+        <v>0.06430232797957587</v>
       </c>
       <c r="J88" t="n">
-        <v>0.08183325929422539</v>
+        <v>0.08188377737100684</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2220315821404231</v>
+        <v>0.222019995425565</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05391530157785566</v>
+        <v>0.05392781522990243</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03161574189619369</v>
+        <v>0.03163428063996671</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -16768,40 +16768,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.03627653218135265</v>
+        <v>0.0363104391223784</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03525886574867442</v>
+        <v>0.0352325191390936</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06339933579051742</v>
+        <v>0.06334870447993167</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2094580662779893</v>
+        <v>0.2094044566550161</v>
       </c>
       <c r="F89" t="n">
-        <v>0.05333195261825733</v>
+        <v>0.05326413873620583</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04524079426551151</v>
+        <v>0.04514044804815152</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07475930653890776</v>
+        <v>0.07492380102307322</v>
       </c>
       <c r="I89" t="n">
-        <v>0.06424311459996225</v>
+        <v>0.06427427232955348</v>
       </c>
       <c r="J89" t="n">
-        <v>0.08169556698820221</v>
+        <v>0.08174551099592933</v>
       </c>
       <c r="K89" t="n">
-        <v>0.2244261479332345</v>
+        <v>0.2244146928855907</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05404766399504409</v>
+        <v>0.05406003544649943</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03154445199968476</v>
+        <v>0.03156278007591489</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -16953,40 +16953,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0364898406134889</v>
+        <v>0.03652970932762546</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03513566349355497</v>
+        <v>0.03511029249364989</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0629425059163133</v>
+        <v>0.06289380265756693</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2075123530718957</v>
+        <v>0.2074602519113764</v>
       </c>
       <c r="F90" t="n">
-        <v>0.05311305566737169</v>
+        <v>0.05304532415869651</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04544535052641427</v>
+        <v>0.04534681137499719</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0743012384898909</v>
+        <v>0.07446433777499502</v>
       </c>
       <c r="I90" t="n">
-        <v>0.06387239836819165</v>
+        <v>0.06390252643057893</v>
       </c>
       <c r="J90" t="n">
-        <v>0.08136955375809068</v>
+        <v>0.0814180304900522</v>
       </c>
       <c r="K90" t="n">
-        <v>0.2270944609897091</v>
+        <v>0.2270817754897566</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05427853597551155</v>
+        <v>0.05428578483262729</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03183584781839982</v>
+        <v>0.03185215774691023</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -17138,40 +17138,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03667600787618529</v>
+        <v>0.03671588162425041</v>
       </c>
       <c r="C91" t="n">
-        <v>0.03498316566198262</v>
+        <v>0.03495785255225589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06247880307072662</v>
+        <v>0.06243064095929966</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2055950932888898</v>
+        <v>0.2055433470203334</v>
       </c>
       <c r="F91" t="n">
-        <v>0.05274826448391497</v>
+        <v>0.0526812855475584</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04536333272850682</v>
+        <v>0.04526544043690876</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07421579762056768</v>
+        <v>0.07437730870121347</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06374647464544846</v>
+        <v>0.06377604394176641</v>
       </c>
       <c r="J91" t="n">
-        <v>0.08125508222280464</v>
+        <v>0.08130369235387279</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2294671478397613</v>
+        <v>0.2294537072505259</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05472761525865294</v>
+        <v>0.05473366352380889</v>
       </c>
       <c r="M91" t="n">
-        <v>0.03201570756861981</v>
+        <v>0.03203362835426705</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -17323,40 +17323,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03653418011999492</v>
+        <v>0.03657361569500438</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0348111999691605</v>
+        <v>0.03478616502547471</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06191385276484367</v>
+        <v>0.06186621990738844</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2038061533233002</v>
+        <v>0.2037549756950575</v>
       </c>
       <c r="F92" t="n">
-        <v>0.05254878989279505</v>
+        <v>0.05248254698870614</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04520269553232598</v>
+        <v>0.04510565743202182</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07435644132484923</v>
+        <v>0.07451639910662915</v>
       </c>
       <c r="I92" t="n">
-        <v>0.06386923695042483</v>
+        <v>0.06389848130942061</v>
       </c>
       <c r="J92" t="n">
-        <v>0.08171693631664197</v>
+        <v>0.08176501227044562</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2315599362029878</v>
+        <v>0.2315466433125351</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05485067542284131</v>
+        <v>0.05485665722354499</v>
       </c>
       <c r="M92" t="n">
-        <v>0.03194192956496136</v>
+        <v>0.03195965341889819</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -17508,40 +17508,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.03637834265262885</v>
+        <v>0.03641713044004197</v>
       </c>
       <c r="C93" t="n">
-        <v>0.03458687281024313</v>
+        <v>0.03456210998551046</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06147951960996579</v>
+        <v>0.06143240450096115</v>
       </c>
       <c r="E93" t="n">
-        <v>0.202081085321737</v>
+        <v>0.2020302448320204</v>
       </c>
       <c r="F93" t="n">
-        <v>0.05227826753142249</v>
+        <v>0.05221252551885788</v>
       </c>
       <c r="G93" t="n">
-        <v>0.045054096910739</v>
+        <v>0.04495833271243655</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07435618847095474</v>
+        <v>0.07451484586127734</v>
       </c>
       <c r="I93" t="n">
-        <v>0.06371233749670194</v>
+        <v>0.06374170226231414</v>
       </c>
       <c r="J93" t="n">
-        <v>0.08178854213142617</v>
+        <v>0.08183565724043081</v>
       </c>
       <c r="K93" t="n">
-        <v>0.2340799142373532</v>
+        <v>0.2340669849748822</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0553013044091853</v>
+        <v>0.05530722119031611</v>
       </c>
       <c r="M93" t="n">
-        <v>0.03205580532650552</v>
+        <v>0.03207311738981419</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -17693,40 +17693,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0362980454998631</v>
+        <v>0.03633641621429329</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0343517614650936</v>
+        <v>0.03432726490729354</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06103935209422807</v>
+        <v>0.06099274359929875</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2001873878279856</v>
+        <v>0.2001370940102014</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05190972346421215</v>
+        <v>0.05184468835500845</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04477081952692161</v>
+        <v>0.04467608505118155</v>
       </c>
       <c r="H94" t="n">
-        <v>0.07392757646882336</v>
+        <v>0.07408452786570163</v>
       </c>
       <c r="I94" t="n">
-        <v>0.06387596677399628</v>
+        <v>0.06390501578944059</v>
       </c>
       <c r="J94" t="n">
-        <v>0.08246495203769089</v>
+        <v>0.0825115605326202</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2366098671701251</v>
+        <v>0.2365970769319817</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05550291324771678</v>
+        <v>0.05550876640754511</v>
       </c>
       <c r="M94" t="n">
-        <v>0.03227952610216626</v>
+        <v>0.03229665201425656</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -17878,40 +17878,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03634256687515308</v>
+        <v>0.03638052939049358</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03411843532667281</v>
+        <v>0.03409419937055147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06060640506990465</v>
+        <v>0.06056029241002776</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1985551080601927</v>
+        <v>0.1985053492830232</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05157904760842588</v>
+        <v>0.05151470436208604</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04466772504157646</v>
+        <v>0.0445739983794081</v>
       </c>
       <c r="H95" t="n">
-        <v>0.073995376723273</v>
+        <v>0.0741506584244398</v>
       </c>
       <c r="I95" t="n">
-        <v>0.06442110166790563</v>
+        <v>0.06444984165127075</v>
       </c>
       <c r="J95" t="n">
-        <v>0.08316729201152859</v>
+        <v>0.08321340467140548</v>
       </c>
       <c r="K95" t="n">
-        <v>0.2383226659380152</v>
+        <v>0.238310011766235</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05542012493742619</v>
+        <v>0.05542591582959678</v>
       </c>
       <c r="M95" t="n">
-        <v>0.03212315125767454</v>
+        <v>0.0321400949792107</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -18063,40 +18063,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03617202114982826</v>
+        <v>0.03620958405974413</v>
       </c>
       <c r="C96" t="n">
-        <v>0.03398148806422621</v>
+        <v>0.03395750722343246</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06010914465858604</v>
+        <v>0.06006351739512892</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1967349979149402</v>
+        <v>0.1966857629143725</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05183299572695372</v>
+        <v>0.05176932977794378</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04475164443840797</v>
+        <v>0.04465890437268349</v>
       </c>
       <c r="H96" t="n">
-        <v>0.07420669574785738</v>
+        <v>0.07436034290480137</v>
       </c>
       <c r="I96" t="n">
-        <v>0.06429220972836923</v>
+        <v>0.06432064718559367</v>
       </c>
       <c r="J96" t="n">
-        <v>0.08330031546477734</v>
+        <v>0.08334594272823447</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2399196111283834</v>
+        <v>0.2399070901584115</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05610413202620066</v>
+        <v>0.05610986196161156</v>
       </c>
       <c r="M96" t="n">
-        <v>0.03218844272027623</v>
+        <v>0.03220520808684885</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -18248,40 +18248,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03639144540096638</v>
+        <v>0.03642861703057062</v>
       </c>
       <c r="C97" t="n">
-        <v>0.03408449426422854</v>
+        <v>0.03406076322385974</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05986039427968522</v>
+        <v>0.05981524230022244</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1951747864626385</v>
+        <v>0.1951260643266601</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05155558019663582</v>
+        <v>0.05149257743459473</v>
       </c>
       <c r="G97" t="n">
-        <v>0.04457445414406968</v>
+        <v>0.04448268012069649</v>
       </c>
       <c r="H97" t="n">
-        <v>0.07401039461569996</v>
+        <v>0.07416244128142578</v>
       </c>
       <c r="I97" t="n">
-        <v>0.06475759897313899</v>
+        <v>0.06478574020685067</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0842403630975182</v>
+        <v>0.08428551507698097</v>
       </c>
       <c r="K97" t="n">
-        <v>0.2401356575472269</v>
+        <v>0.2401232670040254</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05668316498995316</v>
+        <v>0.05668883523853686</v>
       </c>
       <c r="M97" t="n">
-        <v>0.03240043043487027</v>
+        <v>0.03241702116220775</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -18433,40 +18433,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.03636212854870527</v>
+        <v>0.03639891696563317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.03381291988418092</v>
+        <v>0.03378943349371282</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05935447344032181</v>
+        <v>0.05930978694518339</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1933335231643359</v>
+        <v>0.1932853033184191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05119638218135359</v>
+        <v>0.05113402893232324</v>
       </c>
       <c r="G98" t="n">
-        <v>0.04448904318315831</v>
+        <v>0.04439821528373742</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07454102292999164</v>
+        <v>0.07469150210431823</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06620127587218166</v>
+        <v>0.06622912699008189</v>
       </c>
       <c r="J98" t="n">
-        <v>0.08622248844750179</v>
+        <v>0.0862671749426402</v>
       </c>
       <c r="K98" t="n">
-        <v>0.2391625376691566</v>
+        <v>0.2391502748635139</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05664086004252076</v>
+        <v>0.05664647183493349</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03282150322459827</v>
+        <v>0.0328379229135096</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -18618,40 +18618,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03667676219496891</v>
+        <v>0.03671317521988735</v>
       </c>
       <c r="C99" t="n">
-        <v>0.03385218122248194</v>
+        <v>0.03382914021236405</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05896585363445191</v>
+        <v>0.05892141740065313</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1916627339228266</v>
+        <v>0.1916150061161538</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05109940591224091</v>
+        <v>0.05103768892085372</v>
       </c>
       <c r="G99" t="n">
-        <v>0.04448211009570659</v>
+        <v>0.04439220901158592</v>
       </c>
       <c r="H99" t="n">
-        <v>0.07412375244244994</v>
+        <v>0.07427269611499768</v>
       </c>
       <c r="I99" t="n">
-        <v>0.06579092998865642</v>
+        <v>0.06581849691147602</v>
       </c>
       <c r="J99" t="n">
-        <v>0.08618078387985101</v>
+        <v>0.08622522011364979</v>
       </c>
       <c r="K99" t="n">
-        <v>0.2406267319330708</v>
+        <v>0.2406143885347934</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05780392840993578</v>
+        <v>0.05780948293916063</v>
       </c>
       <c r="M99" t="n">
-        <v>0.03313688129230442</v>
+        <v>0.03315313343336972</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -18803,40 +18803,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.03695490010282051</v>
+        <v>0.03699074167411499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03431830451446991</v>
+        <v>0.03429590353241086</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05902862417852035</v>
+        <v>0.05898443315027658</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1909233664440213</v>
+        <v>0.1908761207364058</v>
       </c>
       <c r="F100" t="n">
-        <v>0.05149171194210609</v>
+        <v>0.0514306183546723</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04506079728353473</v>
+        <v>0.0449720079364643</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0746083035553006</v>
+        <v>0.07475655732747323</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06618533065580504</v>
+        <v>0.06621119360781867</v>
       </c>
       <c r="J100" t="n">
-        <v>0.08637329933271547</v>
+        <v>0.08641749036095925</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2387895812625153</v>
+        <v>0.2387773625450285</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05756319266127536</v>
+        <v>0.05756808014827006</v>
       </c>
       <c r="M100" t="n">
-        <v>0.03336320809758845</v>
+        <v>0.03338011065677846</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -18988,40 +18988,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.03704622890667527</v>
+        <v>0.03708171206225681</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03438660510876797</v>
+        <v>0.03436442813652951</v>
       </c>
       <c r="D101" t="n">
-        <v>0.05903530170762687</v>
+        <v>0.05899155258966553</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1925983347109937</v>
+        <v>0.1925515614604544</v>
       </c>
       <c r="F101" t="n">
-        <v>0.05203846696639181</v>
+        <v>0.05197798431483236</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04513215459365739</v>
+        <v>0.04504425314005766</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07438600028225237</v>
+        <v>0.07453277151670329</v>
       </c>
       <c r="I101" t="n">
-        <v>0.06643434608173222</v>
+        <v>0.06645995040422573</v>
       </c>
       <c r="J101" t="n">
-        <v>0.08589967944194674</v>
+        <v>0.08594342855990807</v>
       </c>
       <c r="K101" t="n">
-        <v>0.2369663918066168</v>
+        <v>0.2369542952763049</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05739823793875123</v>
+        <v>0.05740307655087599</v>
       </c>
       <c r="M101" t="n">
-        <v>0.03342956795225903</v>
+        <v>0.03344630148585714</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -19173,40 +19173,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.03686846779877681</v>
+        <v>0.03690020621989216</v>
       </c>
       <c r="C102" t="n">
-        <v>0.03424835134871323</v>
+        <v>0.03422958775384</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05922768644276375</v>
+        <v>0.05918417087167478</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1951906910212805</v>
+        <v>0.1951403886180033</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05286602932989414</v>
+        <v>0.05280933931985162</v>
       </c>
       <c r="G102" t="n">
-        <v>0.04525639354524352</v>
+        <v>0.04516576937426006</v>
       </c>
       <c r="H102" t="n">
-        <v>0.07430283763442169</v>
+        <v>0.07445274678069609</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06598517556237388</v>
+        <v>0.06601032676401246</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08525259291921813</v>
+        <v>0.08529610849030711</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2350391769888063</v>
+        <v>0.2350270006134099</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05717047783889697</v>
+        <v>0.05717586738210524</v>
       </c>
       <c r="M102" t="n">
-        <v>0.03335548369054361</v>
+        <v>0.03337185193287983</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -19358,40 +19358,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03708891068372673</v>
+        <v>0.03712033794385075</v>
       </c>
       <c r="C103" t="n">
-        <v>0.03418020904859999</v>
+        <v>0.03416261768915949</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05971653797302474</v>
+        <v>0.05967285605800959</v>
       </c>
       <c r="E103" t="n">
-        <v>0.198087206496074</v>
+        <v>0.1980387808436816</v>
       </c>
       <c r="F103" t="n">
-        <v>0.05311147664243012</v>
+        <v>0.05305692366259219</v>
       </c>
       <c r="G103" t="n">
-        <v>0.04518469148511</v>
+        <v>0.04509732765507969</v>
       </c>
       <c r="H103" t="n">
-        <v>0.07419007602234458</v>
+        <v>0.07433535297952168</v>
       </c>
       <c r="I103" t="n">
-        <v>0.06560252777952373</v>
+        <v>0.06562703708930599</v>
       </c>
       <c r="J103" t="n">
-        <v>0.08457372182961206</v>
+        <v>0.08461661312173102</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2330339244425417</v>
+        <v>0.2330224604105468</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0568297761232676</v>
+        <v>0.05683491517209291</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03318362888793751</v>
+        <v>0.03319746478862104</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -19543,40 +19543,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.03712851858804131</v>
+        <v>0.037159640729135</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03432537278550796</v>
+        <v>0.03430795221596496</v>
       </c>
       <c r="D104" t="n">
-        <v>0.05994515848118471</v>
+        <v>0.05990190066243184</v>
       </c>
       <c r="E104" t="n">
-        <v>0.200014562813191</v>
+        <v>0.1999666073127636</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05333297578756144</v>
+        <v>0.05327895244830446</v>
       </c>
       <c r="G104" t="n">
-        <v>0.04526744782588356</v>
+        <v>0.04518093218837782</v>
       </c>
       <c r="H104" t="n">
-        <v>0.07415525407313468</v>
+        <v>0.07429912057441686</v>
       </c>
       <c r="I104" t="n">
-        <v>0.06557591717830619</v>
+        <v>0.06560018853362454</v>
       </c>
       <c r="J104" t="n">
-        <v>0.08417149435015697</v>
+        <v>0.08421396922196409</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2311112581311487</v>
+        <v>0.2310999054004353</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05660725991470184</v>
+        <v>0.05661234906984924</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03318559776922756</v>
+        <v>0.03319929934077825</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -19728,40 +19728,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.03708458886529893</v>
+        <v>0.03710746371428616</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03434949357410598</v>
+        <v>0.03432894498094796</v>
       </c>
       <c r="D105" t="n">
-        <v>0.06068251570610394</v>
+        <v>0.06060652468234977</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2027285430039407</v>
+        <v>0.2026603061662839</v>
       </c>
       <c r="F105" t="n">
-        <v>0.05371363480574989</v>
+        <v>0.05367544543922036</v>
       </c>
       <c r="G105" t="n">
-        <v>0.04515378877286903</v>
+        <v>0.04511753795286386</v>
       </c>
       <c r="H105" t="n">
-        <v>0.07376227681513865</v>
+        <v>0.07390902478703128</v>
       </c>
       <c r="I105" t="n">
-        <v>0.06508185318844378</v>
+        <v>0.06510143250833962</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08377583888662295</v>
+        <v>0.08380724334031726</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2291082841071753</v>
+        <v>0.2291080902525228</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05623568383391774</v>
+        <v>0.05624130561883833</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03315321651393505</v>
+        <v>0.03316639863030057</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -19913,40 +19913,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.03734448518223039</v>
+        <v>0.03736637414184238</v>
       </c>
       <c r="C106" t="n">
-        <v>0.03447223126261855</v>
+        <v>0.03445245439560071</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06109055020972119</v>
+        <v>0.06101413085949688</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2053762356941728</v>
+        <v>0.2053099927900839</v>
       </c>
       <c r="F106" t="n">
-        <v>0.05409145936957876</v>
+        <v>0.05405286567763131</v>
       </c>
       <c r="G106" t="n">
-        <v>0.04520012557350514</v>
+        <v>0.04516441200782242</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07347298105548947</v>
+        <v>0.07361871544448509</v>
       </c>
       <c r="I106" t="n">
-        <v>0.06462907333857516</v>
+        <v>0.06464789016350476</v>
       </c>
       <c r="J106" t="n">
-        <v>0.08328461119735489</v>
+        <v>0.08331610057784933</v>
       </c>
       <c r="K106" t="n">
-        <v>0.227034977213401</v>
+        <v>0.2270345931965657</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0557767172512843</v>
+        <v>0.05578247750381377</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03293635592984397</v>
+        <v>0.03294979651907939</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -20098,40 +20098,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.03749981455790796</v>
+        <v>0.03752149701790097</v>
       </c>
       <c r="C107" t="n">
-        <v>0.03445628188415252</v>
+        <v>0.03443669159135182</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0614566504859724</v>
+        <v>0.06138095207301435</v>
       </c>
       <c r="E107" t="n">
-        <v>0.2070458104732368</v>
+        <v>0.2069801925022053</v>
       </c>
       <c r="F107" t="n">
-        <v>0.05424456978005236</v>
+        <v>0.05420634017953838</v>
       </c>
       <c r="G107" t="n">
-        <v>0.04504474004442242</v>
+        <v>0.04500936339917067</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07324639300866195</v>
+        <v>0.07339075254493119</v>
       </c>
       <c r="I107" t="n">
-        <v>0.06441383371379077</v>
+        <v>0.06443266321852154</v>
       </c>
       <c r="J107" t="n">
-        <v>0.08302993739094579</v>
+        <v>0.08306093950479544</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2258500190006821</v>
+        <v>0.2258496386066471</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05552307413156993</v>
+        <v>0.0555287800420944</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03288620550483424</v>
+        <v>0.03289951929605801</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -20283,40 +20283,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.03772836204877539</v>
+        <v>0.0377002875469612</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03464977624245215</v>
+        <v>0.03460285979311165</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06193046680736577</v>
+        <v>0.06185622953411212</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2097174706494273</v>
+        <v>0.2096586837731452</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05418623795457847</v>
+        <v>0.05412669740039534</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0447675252251283</v>
+        <v>0.04472305822896622</v>
       </c>
       <c r="H108" t="n">
-        <v>0.07274065736163368</v>
+        <v>0.07288687087443782</v>
       </c>
       <c r="I108" t="n">
-        <v>0.06453159766337241</v>
+        <v>0.06456513632996923</v>
       </c>
       <c r="J108" t="n">
-        <v>0.08259556117631786</v>
+        <v>0.08261986728862679</v>
       </c>
       <c r="K108" t="n">
-        <v>0.2239357926722536</v>
+        <v>0.2239457789044425</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05512588587771539</v>
+        <v>0.05514322046943958</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03278536553472411</v>
+        <v>0.0328660090701367</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -20468,40 +20468,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.03777813619349072</v>
+        <v>0.03775144168987035</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03489550315219152</v>
+        <v>0.03485014116352194</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06230851827210772</v>
+        <v>0.06223272828280792</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2126015604524102</v>
+        <v>0.2125423845248042</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05413850676546993</v>
+        <v>0.05408063756181738</v>
       </c>
       <c r="G109" t="n">
-        <v>0.04461211579515646</v>
+        <v>0.04456787385558983</v>
       </c>
       <c r="H109" t="n">
-        <v>0.07265646525943698</v>
+        <v>0.07280319169192377</v>
       </c>
       <c r="I109" t="n">
-        <v>0.06413830515663139</v>
+        <v>0.06417022655606555</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0820559173314158</v>
+        <v>0.08207981171227879</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2220405875926934</v>
+        <v>0.22205066803462</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05467426358638229</v>
+        <v>0.05469162434747806</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03265839174389405</v>
+        <v>0.03273754188050271</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -20653,40 +20653,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.03799216832895312</v>
+        <v>0.03796571872903569</v>
       </c>
       <c r="C110" t="n">
-        <v>0.03549277361787431</v>
+        <v>0.03544782779423839</v>
       </c>
       <c r="D110" t="n">
-        <v>0.06273456679716985</v>
+        <v>0.06265947212887281</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2124402271410258</v>
+        <v>0.2123815941118382</v>
       </c>
       <c r="F110" t="n">
-        <v>0.05507121138612735</v>
+        <v>0.05501387309260005</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04453391273370672</v>
+        <v>0.04449007668349392</v>
       </c>
       <c r="H110" t="n">
-        <v>0.07301254839305733</v>
+        <v>0.07315792871148462</v>
       </c>
       <c r="I110" t="n">
-        <v>0.06443732915269354</v>
+        <v>0.06446895769525215</v>
       </c>
       <c r="J110" t="n">
-        <v>0.08174942462872067</v>
+        <v>0.08177309979508034</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2202768921683105</v>
+        <v>0.2202868801291184</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05447600290686652</v>
+        <v>0.05449320439492471</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03257462440180901</v>
+        <v>0.03265304839037538</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -20838,40 +20838,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0382065244285764</v>
+        <v>0.03818141496414112</v>
       </c>
       <c r="C111" t="n">
-        <v>0.03543440289876854</v>
+        <v>0.03539023223505391</v>
       </c>
       <c r="D111" t="n">
-        <v>0.06240343394836248</v>
+        <v>0.06232883867810583</v>
       </c>
       <c r="E111" t="n">
-        <v>0.210850404409002</v>
+        <v>0.2107930375304017</v>
       </c>
       <c r="F111" t="n">
-        <v>0.05478042048272487</v>
+        <v>0.05472287032336225</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04440288044046033</v>
+        <v>0.04435944289979491</v>
       </c>
       <c r="H111" t="n">
-        <v>0.07290340553984433</v>
+        <v>0.07304636453443937</v>
       </c>
       <c r="I111" t="n">
-        <v>0.06420160150730099</v>
+        <v>0.06423294251765452</v>
       </c>
       <c r="J111" t="n">
-        <v>0.08139058779973278</v>
+        <v>0.08141496414111886</v>
       </c>
       <c r="K111" t="n">
-        <v>0.2223499892780754</v>
+        <v>0.2223593365969528</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0547162722159194</v>
+        <v>0.05473350060757573</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03291227632873971</v>
+        <v>0.03298925424890627</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -21023,40 +21023,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.03820033416210913</v>
+        <v>0.03817545090906515</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03524903504742621</v>
+        <v>0.03520508068803466</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06202777443276627</v>
+        <v>0.06195385119197139</v>
       </c>
       <c r="E112" t="n">
-        <v>0.209399657918841</v>
+        <v>0.2093428078589668</v>
       </c>
       <c r="F112" t="n">
-        <v>0.05465197864544652</v>
+        <v>0.05459458369681954</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04457444279222066</v>
+        <v>0.04453194146950321</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07265582955589206</v>
+        <v>0.0727964108541113</v>
       </c>
       <c r="I112" t="n">
-        <v>0.06401770815794727</v>
+        <v>0.06404858518727191</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08143271595621347</v>
+        <v>0.08145759920925744</v>
       </c>
       <c r="K112" t="n">
-        <v>0.2242335276951515</v>
+        <v>0.2242431540631174</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05476077476641981</v>
+        <v>0.05477802957692476</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03299083442628935</v>
+        <v>0.03306711885167965</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -21208,40 +21208,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03813143168196494</v>
+        <v>0.0381065905929316</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0350970386541746</v>
+        <v>0.03505347674442048</v>
       </c>
       <c r="D113" t="n">
-        <v>0.061730466263641</v>
+        <v>0.06165720305178179</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2079263954931784</v>
+        <v>0.2078702330310161</v>
       </c>
       <c r="F113" t="n">
-        <v>0.05446120757934028</v>
+        <v>0.05440414507772021</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04449417062444017</v>
+        <v>0.04445204877781842</v>
       </c>
       <c r="H113" t="n">
-        <v>0.07268682659047773</v>
+        <v>0.0728261526985343</v>
       </c>
       <c r="I113" t="n">
-        <v>0.06379101659816766</v>
+        <v>0.06382161793973047</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08132684536890097</v>
+        <v>0.08135150645004277</v>
       </c>
       <c r="K113" t="n">
-        <v>0.2261421140702808</v>
+        <v>0.2261516544885328</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05477820147635273</v>
+        <v>0.05479530222604959</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03302370775934817</v>
+        <v>0.03309949108168902</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -21393,40 +21393,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.03809889645031065</v>
+        <v>0.03807445360882497</v>
       </c>
       <c r="C114" t="n">
-        <v>0.03501392439097627</v>
+        <v>0.03496985591034152</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06142111394057321</v>
+        <v>0.0613484990757216</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2065072196481908</v>
+        <v>0.2064511973691652</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05423545378848878</v>
+        <v>0.0541790746796605</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04431826149665481</v>
+        <v>0.04427597716503361</v>
       </c>
       <c r="H114" t="n">
-        <v>0.07282896273323065</v>
+        <v>0.07296669903707693</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06366521656982009</v>
+        <v>0.06369661759245862</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0810788677718994</v>
+        <v>0.08110384585808915</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2277671392936875</v>
+        <v>0.2277773089430648</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0549269899461419</v>
+        <v>0.05494376094686929</v>
       </c>
       <c r="M114" t="n">
-        <v>0.033194449226955</v>
+        <v>0.03326920507062286</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -21578,40 +21578,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.03808320219916336</v>
+        <v>0.03805879691870954</v>
       </c>
       <c r="C115" t="n">
-        <v>0.03490078899795809</v>
+        <v>0.0348572839328013</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0610549377011004</v>
+        <v>0.06098278295888913</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2050522821236272</v>
+        <v>0.2049967512681019</v>
       </c>
       <c r="F115" t="n">
-        <v>0.05397333882275294</v>
+        <v>0.05391763111736924</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04420733594434464</v>
+        <v>0.04416524567805474</v>
       </c>
       <c r="H115" t="n">
-        <v>0.07292633814329579</v>
+        <v>0.07306428103281733</v>
       </c>
       <c r="I115" t="n">
-        <v>0.06364914827339715</v>
+        <v>0.06368009699861031</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08115392410382219</v>
+        <v>0.08117815253441764</v>
       </c>
       <c r="K115" t="n">
-        <v>0.229450134883387</v>
+        <v>0.2294607458748886</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0549847431627192</v>
+        <v>0.05500065964997169</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03320285350783463</v>
+        <v>0.03327659989877114</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -21763,40 +21763,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.03828236282052518</v>
+        <v>0.03825816975990141</v>
       </c>
       <c r="C116" t="n">
-        <v>0.03495862197729183</v>
+        <v>0.03491549521704945</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0608818370597367</v>
+        <v>0.0608103097500664</v>
       </c>
       <c r="E116" t="n">
-        <v>0.203749047836518</v>
+        <v>0.2036939998579972</v>
       </c>
       <c r="F116" t="n">
-        <v>0.05398786665416107</v>
+        <v>0.0539326433636068</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04455835830799344</v>
+        <v>0.0445166340440191</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0735518130332225</v>
+        <v>0.0736885564193569</v>
       </c>
       <c r="I116" t="n">
-        <v>0.06420294822246747</v>
+        <v>0.06423362782833095</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08131287675651701</v>
+        <v>0.08133706981714078</v>
       </c>
       <c r="K116" t="n">
-        <v>0.228307634050155</v>
+        <v>0.2283179774601319</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0556996133493101</v>
+        <v>0.05571539143232561</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03338396929234421</v>
+        <v>0.03345707441031606</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -21948,40 +21948,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03855195494529101</v>
+        <v>0.03852797044553468</v>
       </c>
       <c r="C117" t="n">
-        <v>0.03511521945122074</v>
+        <v>0.03507246447339424</v>
       </c>
       <c r="D117" t="n">
-        <v>0.06134470314488932</v>
+        <v>0.06127379244995756</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2053384282435907</v>
+        <v>0.205283854816609</v>
       </c>
       <c r="F117" t="n">
-        <v>0.05427553254279495</v>
+        <v>0.05422078531509028</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04442172675884593</v>
+        <v>0.04438036218680241</v>
       </c>
       <c r="H117" t="n">
-        <v>0.07324692424860733</v>
+        <v>0.07338248881244747</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0638569925940036</v>
+        <v>0.06388740772050619</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0808331520012458</v>
+        <v>0.08085713650100214</v>
       </c>
       <c r="K117" t="n">
-        <v>0.2268219355977945</v>
+        <v>0.226832189840444</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05557173833397408</v>
+        <v>0.05558738039903256</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03338381664997021</v>
+        <v>0.03345629155140782</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -22133,40 +22133,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.03852469199942033</v>
+        <v>0.0385005678648952</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03519452754347212</v>
+        <v>0.03515317188428618</v>
       </c>
       <c r="D118" t="n">
-        <v>0.06193096120718548</v>
+        <v>0.06185996732558294</v>
       </c>
       <c r="E118" t="n">
-        <v>0.207723789687863</v>
+        <v>0.2076695103851814</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05447591437793248</v>
+        <v>0.05442129044475771</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04429053246617409</v>
+        <v>0.04424934912223475</v>
       </c>
       <c r="H118" t="n">
-        <v>0.07315385321877127</v>
+        <v>0.07328894837211201</v>
       </c>
       <c r="I118" t="n">
-        <v>0.06358984008628168</v>
+        <v>0.06361947830869828</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08031889348798282</v>
+        <v>0.08034284530726135</v>
       </c>
       <c r="K118" t="n">
-        <v>0.225046469114129</v>
+        <v>0.2250566357136789</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05522858737511668</v>
+        <v>0.05524444037780463</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03330095529849567</v>
+        <v>0.03337281075633125</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -22318,40 +22318,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.03867370087877534</v>
+        <v>0.03864995204101612</v>
       </c>
       <c r="C119" t="n">
-        <v>0.03520192833728407</v>
+        <v>0.03516058143989032</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06235983487210994</v>
+        <v>0.06228961348851975</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2088766663055932</v>
+        <v>0.2088230178519501</v>
       </c>
       <c r="F119" t="n">
-        <v>0.05499325293810711</v>
+        <v>0.05493909191962026</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04428252710870031</v>
+        <v>0.04424169277615029</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0730099071950094</v>
+        <v>0.07314402832911721</v>
       </c>
       <c r="I119" t="n">
-        <v>0.06335591921841378</v>
+        <v>0.06338530626945398</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08002538221106122</v>
+        <v>0.08004896019387253</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2237060215092711</v>
+        <v>0.2237164436610935</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05521656035502291</v>
+        <v>0.05523210815528255</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03330560927045279</v>
+        <v>0.03337651407383462</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -22503,40 +22503,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0386031794222094</v>
+        <v>0.03857963015451538</v>
       </c>
       <c r="C120" t="n">
-        <v>0.03519666772779554</v>
+        <v>0.03515566828332107</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06289772214202106</v>
+        <v>0.06282809085409127</v>
       </c>
       <c r="E120" t="n">
-        <v>0.2104421857854248</v>
+        <v>0.2103889881591232</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05501024223725497</v>
+        <v>0.05495653635337726</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04424229722936936</v>
+        <v>0.04420180604247102</v>
       </c>
       <c r="H120" t="n">
-        <v>0.07282822808363683</v>
+        <v>0.0729612221493908</v>
       </c>
       <c r="I120" t="n">
-        <v>0.06322588711700886</v>
+        <v>0.06325485779884825</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0799468836949106</v>
+        <v>0.07997043296260462</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2226424006428442</v>
+        <v>0.2226527352135588</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05499211438370635</v>
+        <v>0.05500753153018229</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0332063310596713</v>
+        <v>0.03327664002436926</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -22688,40 +22688,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.03861078069662574</v>
+        <v>0.03858742767282917</v>
       </c>
       <c r="C121" t="n">
-        <v>0.03529700342062996</v>
+        <v>0.03525634563819278</v>
       </c>
       <c r="D121" t="n">
-        <v>0.06366790320087633</v>
+        <v>0.06359885217367929</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2109555922931661</v>
+        <v>0.2109028379804171</v>
       </c>
       <c r="F121" t="n">
-        <v>0.05566285625961842</v>
+        <v>0.05560959792477302</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0444527328078063</v>
+        <v>0.04441257904746544</v>
       </c>
       <c r="H121" t="n">
-        <v>0.0725281076322386</v>
+        <v>0.07265999341411128</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06330215116630714</v>
+        <v>0.06333088042579786</v>
       </c>
       <c r="J121" t="n">
-        <v>0.07956996834741235</v>
+        <v>0.07959332137120892</v>
       </c>
       <c r="K121" t="n">
-        <v>0.2212877092531736</v>
+        <v>0.2212979577024657</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05493101617574914</v>
+        <v>0.05494647285336989</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03319136710953408</v>
+        <v>0.03326092215882744</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -22873,40 +22873,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.03875255114324708</v>
+        <v>0.03872939111964718</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0358850403076051</v>
+        <v>0.0358447185398988</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06386368176727975</v>
+        <v>0.06379520140972898</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2105539394450358</v>
+        <v>0.2105016211183426</v>
       </c>
       <c r="F122" t="n">
-        <v>0.05630401679784849</v>
+        <v>0.05625119861453073</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0450874007638809</v>
+        <v>0.04504757885279906</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0726733215356062</v>
+        <v>0.07280411735233944</v>
       </c>
       <c r="I122" t="n">
-        <v>0.06327901613553846</v>
+        <v>0.06330750796313257</v>
       </c>
       <c r="J122" t="n">
-        <v>0.07944971117451144</v>
+        <v>0.07947287119811135</v>
       </c>
       <c r="K122" t="n">
-        <v>0.2198121172243761</v>
+        <v>0.2198222809757401</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05481161153609106</v>
+        <v>0.05482694047257445</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03320414261176086</v>
+        <v>0.03327312282593609</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -23058,40 +23058,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.03915144492393563</v>
+        <v>0.03912830948344841</v>
       </c>
       <c r="C123" t="n">
-        <v>0.03610120234884212</v>
+        <v>0.0360612110874285</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06438493935705289</v>
+        <v>0.0643166898076156</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2111427883031179</v>
+        <v>0.2110912293214607</v>
       </c>
       <c r="F123" t="n">
-        <v>0.05672677804949067</v>
+        <v>0.05667455805524809</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04499380465954381</v>
+        <v>0.04495414390442286</v>
       </c>
       <c r="H123" t="n">
-        <v>0.07260066478035708</v>
+        <v>0.07273071900652453</v>
       </c>
       <c r="I123" t="n">
-        <v>0.06296905039923507</v>
+        <v>0.06299697818096607</v>
       </c>
       <c r="J123" t="n">
-        <v>0.07912832931382598</v>
+        <v>0.07915129950116685</v>
       </c>
       <c r="K123" t="n">
-        <v>0.2184682950271032</v>
+        <v>0.2184785407221761</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05483859559944092</v>
+        <v>0.05485379888890395</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03338642366081329</v>
+        <v>0.03345483846339693</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -23243,40 +23243,40 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.03923406343597518</v>
+        <v>0.03921127999812488</v>
       </c>
       <c r="C124" t="n">
-        <v>0.03608519563351316</v>
+        <v>0.03604536559468133</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06461973048996029</v>
+        <v>0.06455138017640938</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2127337125874232</v>
+        <v>0.2126830645133531</v>
       </c>
       <c r="F124" t="n">
-        <v>0.05713856739381894</v>
+        <v>0.0570869358619999</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04484173952039716</v>
+        <v>0.0448024012104398</v>
       </c>
       <c r="H124" t="n">
-        <v>0.07227906334828353</v>
+        <v>0.07240838804226836</v>
       </c>
       <c r="I124" t="n">
-        <v>0.06277853367433092</v>
+        <v>0.06280672612980036</v>
       </c>
       <c r="J124" t="n">
-        <v>0.07872792362729378</v>
+        <v>0.07875054315551926</v>
       </c>
       <c r="K124" t="n">
-        <v>0.2171751716912343</v>
+        <v>0.2171859897264725</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05501102046362493</v>
+        <v>0.0550254445106093</v>
       </c>
       <c r="M124" t="n">
-        <v>0.03347985214696202</v>
+        <v>0.03354705509313918</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -23428,40 +23428,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.03925096463325727</v>
+        <v>0.03922836493280898</v>
       </c>
       <c r="C125" t="n">
-        <v>0.03646014550955333</v>
+        <v>0.03642063668071208</v>
       </c>
       <c r="D125" t="n">
-        <v>0.06530061503702773</v>
+        <v>0.06523281593568288</v>
       </c>
       <c r="E125" t="n">
-        <v>0.2136783792730506</v>
+        <v>0.2136281396511907</v>
       </c>
       <c r="F125" t="n">
-        <v>0.05772792692134849</v>
+        <v>0.05767671177285057</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04477228281687869</v>
+        <v>0.04473326175135647</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0719919148352238</v>
+        <v>0.0721201965881281</v>
       </c>
       <c r="I125" t="n">
-        <v>0.06253239561377209</v>
+        <v>0.06256036071072969</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07825821019477365</v>
+        <v>0.07828064730744892</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2157900692688948</v>
+        <v>0.2158008000619134</v>
       </c>
       <c r="L125" t="n">
-        <v>0.054944912010749</v>
+        <v>0.05495921973477381</v>
       </c>
       <c r="M125" t="n">
-        <v>0.03360559197882977</v>
+        <v>0.03367225296576357</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -23613,40 +23613,40 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.03910485675692022</v>
+        <v>0.03906147053486825</v>
       </c>
       <c r="C126" t="n">
-        <v>0.03639297594806556</v>
+        <v>0.0363426543819681</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06533803753956574</v>
+        <v>0.06527658716558134</v>
       </c>
       <c r="E126" t="n">
-        <v>0.2159353238845991</v>
+        <v>0.2159320981431826</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05816947238966956</v>
+        <v>0.05812673131590089</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04504989818753654</v>
+        <v>0.04498248019193161</v>
       </c>
       <c r="H126" t="n">
-        <v>0.07176903691457834</v>
+        <v>0.07190532448942562</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06240293542468902</v>
+        <v>0.06243422511642911</v>
       </c>
       <c r="J126" t="n">
-        <v>0.07797665369649806</v>
+        <v>0.07799633071913872</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2141924557972621</v>
+        <v>0.2142016491602992</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05475163807181307</v>
+        <v>0.05476357331505413</v>
       </c>
       <c r="M126" t="n">
-        <v>0.03343222918892765</v>
+        <v>0.03349238926634544</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -23798,40 +23798,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.03906379255666569</v>
+        <v>0.03891690611716418</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0364039959511825</v>
+        <v>0.03636127407825559</v>
       </c>
       <c r="D127" t="n">
-        <v>0.06627042529544495</v>
+        <v>0.06635250889398991</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2179380344034282</v>
+        <v>0.2179626754836932</v>
       </c>
       <c r="F127" t="n">
-        <v>0.05823455300280364</v>
+        <v>0.05819855142449445</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04504469475941825</v>
+        <v>0.04492420947734348</v>
       </c>
       <c r="H127" t="n">
-        <v>0.07192299310401767</v>
+        <v>0.07189659194659094</v>
       </c>
       <c r="I127" t="n">
-        <v>0.06204512005806335</v>
+        <v>0.06219536664487371</v>
       </c>
       <c r="J127" t="n">
-        <v>0.07739955319641213</v>
+        <v>0.07742739441697125</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2126184411924619</v>
+        <v>0.2126318817816973</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05448926880954461</v>
+        <v>0.05450558952504478</v>
       </c>
       <c r="M127" t="n">
-        <v>0.03326641839978264</v>
+        <v>0.03332434093910677</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -23983,40 +23983,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.03909496998647633</v>
+        <v>0.03894924013311264</v>
       </c>
       <c r="C128" t="n">
-        <v>0.03654057012757077</v>
+        <v>0.03649818464734407</v>
       </c>
       <c r="D128" t="n">
-        <v>0.06660441663053847</v>
+        <v>0.06668569515441888</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2193693072291691</v>
+        <v>0.2193939130322969</v>
       </c>
       <c r="F128" t="n">
-        <v>0.05827336793279663</v>
+        <v>0.058237649831482</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04505782919349956</v>
+        <v>0.04493829261443326</v>
       </c>
       <c r="H128" t="n">
-        <v>0.07186148615558456</v>
+        <v>0.07183529288128716</v>
       </c>
       <c r="I128" t="n">
-        <v>0.06204504068450487</v>
+        <v>0.0621941042273246</v>
       </c>
       <c r="J128" t="n">
-        <v>0.07705505683384907</v>
+        <v>0.07708267883219906</v>
       </c>
       <c r="K128" t="n">
-        <v>0.2112379624045553</v>
+        <v>0.2112512971623794</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05439215967039018</v>
+        <v>0.05440835187631948</v>
       </c>
       <c r="M128" t="n">
-        <v>0.03336435781155669</v>
+        <v>0.03342182426789402</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -24168,40 +24168,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.03903084111207435</v>
+        <v>0.03888719481462068</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0364157539666539</v>
+        <v>0.03637401463680168</v>
       </c>
       <c r="D129" t="n">
-        <v>0.06687034409588516</v>
+        <v>0.06695177516582326</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2217153825023689</v>
+        <v>0.2217416861555211</v>
       </c>
       <c r="F129" t="n">
-        <v>0.05862800775185984</v>
+        <v>0.05859351373964235</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04510997762141893</v>
+        <v>0.04498869730448983</v>
       </c>
       <c r="H129" t="n">
-        <v>0.07177148646196649</v>
+        <v>0.07174423776738373</v>
       </c>
       <c r="I129" t="n">
-        <v>0.06173199633071914</v>
+        <v>0.06187973780770549</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0765729269571178</v>
+        <v>0.07660033315860568</v>
       </c>
       <c r="K129" t="n">
-        <v>0.2097095761678192</v>
+        <v>0.209721546692607</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05410976467208323</v>
+        <v>0.0541255153625935</v>
       </c>
       <c r="M129" t="n">
-        <v>0.03332562599544364</v>
+        <v>0.03338343102961634</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -24353,40 +24353,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.03895692275521452</v>
+        <v>0.03882829944194986</v>
       </c>
       <c r="C130" t="n">
-        <v>0.03665967599740503</v>
+        <v>0.03663045053011403</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06727593170242722</v>
+        <v>0.06734672922479526</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2238698925956263</v>
+        <v>0.2238869277610526</v>
       </c>
       <c r="F130" t="n">
-        <v>0.05876381899652248</v>
+        <v>0.05872396608658021</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04508442487327947</v>
+        <v>0.04501894107223707</v>
       </c>
       <c r="H130" t="n">
-        <v>0.07158192140724845</v>
+        <v>0.07151378074554324</v>
       </c>
       <c r="I130" t="n">
-        <v>0.06141849165644166</v>
+        <v>0.06155336640656001</v>
       </c>
       <c r="J130" t="n">
-        <v>0.07619548180527118</v>
+        <v>0.07622361327111278</v>
       </c>
       <c r="K130" t="n">
-        <v>0.2081945709709216</v>
+        <v>0.208208011560157</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05378751897506442</v>
+        <v>0.05380033442061449</v>
       </c>
       <c r="M130" t="n">
-        <v>0.03328171209351399</v>
+        <v>0.03333594330821975</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -24538,40 +24538,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.03925603236907445</v>
+        <v>0.03912839846591182</v>
       </c>
       <c r="C131" t="n">
-        <v>0.03666101644973039</v>
+        <v>0.03663201579372624</v>
       </c>
       <c r="D131" t="n">
-        <v>0.06731098783678369</v>
+        <v>0.06738124076282581</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2251046427413839</v>
+        <v>0.2251215468670762</v>
       </c>
       <c r="F131" t="n">
-        <v>0.05872834449677659</v>
+        <v>0.05868879814768003</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04500064359744608</v>
+        <v>0.04493550843422821</v>
       </c>
       <c r="H131" t="n">
-        <v>0.071441177519684</v>
+        <v>0.07137371610063693</v>
       </c>
       <c r="I131" t="n">
-        <v>0.06126877094599519</v>
+        <v>0.06140260819803571</v>
       </c>
       <c r="J131" t="n">
-        <v>0.07604793948012835</v>
+        <v>0.07607585455007886</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2074610778628843</v>
+        <v>0.2074744150629717</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05361290792834512</v>
+        <v>0.0536256247935448</v>
       </c>
       <c r="M131" t="n">
-        <v>0.03324483222267541</v>
+        <v>0.03329864627419112</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -24723,40 +24723,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.03935419918122188</v>
+        <v>0.039228462981924</v>
       </c>
       <c r="C132" t="n">
-        <v>0.03665802724058598</v>
+        <v>0.03662801676462137</v>
       </c>
       <c r="D132" t="n">
-        <v>0.06724239584556517</v>
+        <v>0.06731211248972911</v>
       </c>
       <c r="E132" t="n">
-        <v>0.2238128971482507</v>
+        <v>0.2238296722348155</v>
       </c>
       <c r="F132" t="n">
-        <v>0.05838576573884022</v>
+        <v>0.05834652127027112</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04481764480554828</v>
+        <v>0.04475300685731681</v>
       </c>
       <c r="H132" t="n">
-        <v>0.07123086505120019</v>
+        <v>0.07116391860481759</v>
       </c>
       <c r="I132" t="n">
-        <v>0.06117612440404196</v>
+        <v>0.06130893999766995</v>
       </c>
       <c r="J132" t="n">
-        <v>0.07612395773232225</v>
+        <v>0.07615150581025899</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2093278407493323</v>
+        <v>0.2093413839384856</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0538366392822356</v>
+        <v>0.05384941297200515</v>
       </c>
       <c r="M132" t="n">
-        <v>0.03323560178160653</v>
+        <v>0.03328900503883586</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -24908,40 +24908,40 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.03956680369958328</v>
+        <v>0.03944049270756394</v>
       </c>
       <c r="C133" t="n">
-        <v>0.03659062958774658</v>
+        <v>0.03656161013371553</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06691702818797031</v>
+        <v>0.06698698034558198</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2223165099921617</v>
+        <v>0.2223331579947374</v>
       </c>
       <c r="F133" t="n">
-        <v>0.05813085391118092</v>
+        <v>0.05809312862094056</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04480344054646992</v>
+        <v>0.04473913954569587</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07139992289989266</v>
+        <v>0.07133424729340135</v>
       </c>
       <c r="I133" t="n">
-        <v>0.06091947070959591</v>
+        <v>0.06105082192257854</v>
       </c>
       <c r="J133" t="n">
-        <v>0.07594940962211784</v>
+        <v>0.07597781814027454</v>
       </c>
       <c r="K133" t="n">
-        <v>0.2111857165636323</v>
+        <v>0.2111974770792133</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05398977782095058</v>
+        <v>0.05400352387812318</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0333480874346986</v>
+        <v>0.03339925331417438</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -25093,40 +25093,40 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.03953246152416585</v>
+        <v>0.03940710023885342</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03655304669609347</v>
+        <v>0.03652424543344612</v>
       </c>
       <c r="D134" t="n">
-        <v>0.06657427019495271</v>
+        <v>0.06664369639649213</v>
       </c>
       <c r="E134" t="n">
-        <v>0.2209578299491597</v>
+        <v>0.2209743527787837</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0579116083185929</v>
+        <v>0.05787416667715134</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04458132286624709</v>
+        <v>0.04451750533164427</v>
       </c>
       <c r="H134" t="n">
-        <v>0.07169877274788147</v>
+        <v>0.07163359094294273</v>
       </c>
       <c r="I134" t="n">
-        <v>0.06107717025472292</v>
+        <v>0.06120753386460041</v>
       </c>
       <c r="J134" t="n">
-        <v>0.07628469168930471</v>
+        <v>0.07631288660958055</v>
       </c>
       <c r="K134" t="n">
-        <v>0.21246039636904</v>
+        <v>0.2124720684596918</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05403632263659491</v>
+        <v>0.05404996533995419</v>
       </c>
       <c r="M134" t="n">
-        <v>0.03321513194085797</v>
+        <v>0.03326591311447304</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -25278,40 +25278,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.03959522361579735</v>
+        <v>0.03947079786246486</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03642063668071208</v>
+        <v>0.03639220080721772</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06624129207794618</v>
+        <v>0.06630974881043263</v>
       </c>
       <c r="E135" t="n">
-        <v>0.2195776024014923</v>
+        <v>0.219594603743846</v>
       </c>
       <c r="F135" t="n">
-        <v>0.05761438969544126</v>
+        <v>0.05757647519744877</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04458489191509439</v>
+        <v>0.04452260381124959</v>
       </c>
       <c r="H135" t="n">
-        <v>0.07166487074315726</v>
+        <v>0.07160017536959865</v>
       </c>
       <c r="I135" t="n">
-        <v>0.06102248179276597</v>
+        <v>0.06115292572038299</v>
       </c>
       <c r="J135" t="n">
-        <v>0.07619475052711684</v>
+        <v>0.07622619548775347</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2140285448024489</v>
+        <v>0.2140368197920901</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05413799131998723</v>
+        <v>0.05415062948598472</v>
       </c>
       <c r="M135" t="n">
-        <v>0.03331179829968522</v>
+        <v>0.03336129778317541</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -25463,40 +25463,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.03958178859894551</v>
+        <v>0.03945828451785993</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03625867758042513</v>
+        <v>0.03623045234303072</v>
       </c>
       <c r="D136" t="n">
-        <v>0.06588681381125082</v>
+        <v>0.06595476345682995</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2181934802688417</v>
+        <v>0.2182102063354457</v>
       </c>
       <c r="F136" t="n">
-        <v>0.05735233832651224</v>
+        <v>0.05731470467665303</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04456048153151034</v>
+        <v>0.04449835614126656</v>
       </c>
       <c r="H136" t="n">
-        <v>0.0717019594139007</v>
+        <v>0.07163639920640788</v>
       </c>
       <c r="I136" t="n">
-        <v>0.06091962004947631</v>
+        <v>0.06105074046446196</v>
       </c>
       <c r="J136" t="n">
-        <v>0.07602773838938433</v>
+        <v>0.076059099764267</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2156685909110255</v>
+        <v>0.2156766552645668</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05420350694841129</v>
+        <v>0.05421620083824475</v>
       </c>
       <c r="M136" t="n">
-        <v>0.03351052510142045</v>
+        <v>0.03355965792206997</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -25648,40 +25648,40 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.03945855574543682</v>
+        <v>0.03933595978259451</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03623266608714008</v>
+        <v>0.03620464838825593</v>
       </c>
       <c r="D137" t="n">
-        <v>0.06551694285100988</v>
+        <v>0.0655843928668421</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2168602506828017</v>
+        <v>0.216876853763622</v>
       </c>
       <c r="F137" t="n">
-        <v>0.05701290415160036</v>
+        <v>0.05697554721975482</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04442939954958214</v>
+        <v>0.04436773096367839</v>
       </c>
       <c r="H137" t="n">
-        <v>0.07159811768500872</v>
+        <v>0.07153303953786511</v>
       </c>
       <c r="I137" t="n">
-        <v>0.06112216665460967</v>
+        <v>0.0612523229488969</v>
       </c>
       <c r="J137" t="n">
-        <v>0.07652834323786166</v>
+        <v>0.07655947401439961</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2170006356608085</v>
+        <v>0.2170086407176326</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05424715701889312</v>
+        <v>0.05425975757130134</v>
       </c>
       <c r="M137" t="n">
-        <v>0.03339161212356961</v>
+        <v>0.03344038367347907</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -25833,40 +25833,40 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0393493361697882</v>
+        <v>0.03922763506798854</v>
       </c>
       <c r="C138" t="n">
-        <v>0.03629106253302816</v>
+        <v>0.03626324934289499</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06564486794400337</v>
+        <v>0.0657118256239536</v>
       </c>
       <c r="E138" t="n">
-        <v>0.218312645862891</v>
+        <v>0.2183291277533403</v>
       </c>
       <c r="F138" t="n">
-        <v>0.05705132799153301</v>
+        <v>0.05701424373802211</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0442893413527541</v>
+        <v>0.04422812290251388</v>
       </c>
       <c r="H138" t="n">
-        <v>0.07169622345440704</v>
+        <v>0.07163162033023528</v>
       </c>
       <c r="I138" t="n">
-        <v>0.06090470568273509</v>
+        <v>0.06103391193107862</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07615531061962048</v>
+        <v>0.0761862141642129</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2158341815865792</v>
+        <v>0.2158421282123315</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05408885534300948</v>
+        <v>0.0541013639205826</v>
       </c>
       <c r="M138" t="n">
-        <v>0.03330533864619224</v>
+        <v>0.03335375419938702</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -26018,40 +26018,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.03948129259899798</v>
+        <v>0.03936047338924034</v>
       </c>
       <c r="C139" t="n">
-        <v>0.03650157240284718</v>
+        <v>0.03647396075757005</v>
       </c>
       <c r="D139" t="n">
-        <v>0.06589833246115596</v>
+        <v>0.06596480494052685</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2198347158148109</v>
+        <v>0.2198510782712714</v>
       </c>
       <c r="F139" t="n">
-        <v>0.05706245987911066</v>
+        <v>0.05702564435207448</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04424948772362876</v>
+        <v>0.04418871288534681</v>
       </c>
       <c r="H139" t="n">
-        <v>0.07153490652508467</v>
+        <v>0.07147091763285511</v>
       </c>
       <c r="I139" t="n">
-        <v>0.06083809670737704</v>
+        <v>0.06096622058519741</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07574283360930369</v>
+        <v>0.07577351321516718</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2145169174651399</v>
+        <v>0.2145248065066477</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05381305133808371</v>
+        <v>0.0538253231804291</v>
       </c>
       <c r="M139" t="n">
-        <v>0.03318276951522425</v>
+        <v>0.0332309803244383</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -26203,40 +26203,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.03943947521364372</v>
+        <v>0.03931952520683399</v>
       </c>
       <c r="C140" t="n">
-        <v>0.03653427734617209</v>
+        <v>0.03650686434582501</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0659633660785732</v>
+        <v>0.06602936033866803</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2212252334782645</v>
+        <v>0.2212414782192109</v>
       </c>
       <c r="F140" t="n">
-        <v>0.05706835511409827</v>
+        <v>0.05703180444696883</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04421891006780874</v>
+        <v>0.04415857245857917</v>
       </c>
       <c r="H140" t="n">
-        <v>0.07193185795308432</v>
+        <v>0.07186832941259742</v>
       </c>
       <c r="I140" t="n">
-        <v>0.06091835871840017</v>
+        <v>0.06104556084170384</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07548104376521766</v>
+        <v>0.0755115026544922</v>
       </c>
       <c r="K140" t="n">
-        <v>0.2131543530321607</v>
+        <v>0.2131621853179741</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05354310128639493</v>
+        <v>0.05355528484210474</v>
       </c>
       <c r="M140" t="n">
-        <v>0.03306152884188486</v>
+        <v>0.03310939281074485</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -26388,40 +26388,40 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.03957423093428416</v>
+        <v>0.03945211358065938</v>
       </c>
       <c r="C141" t="n">
-        <v>0.03645735829058746</v>
+        <v>0.03642726097112097</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06625082443614327</v>
+        <v>0.06631980346018369</v>
       </c>
       <c r="E141" t="n">
-        <v>0.2224232230340978</v>
+        <v>0.2224400717727465</v>
       </c>
       <c r="F141" t="n">
-        <v>0.05718073080323841</v>
+        <v>0.05714444121230275</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04410135740350857</v>
+        <v>0.04404159478351531</v>
       </c>
       <c r="H141" t="n">
-        <v>0.07185641418519788</v>
+        <v>0.0717930514073737</v>
       </c>
       <c r="I141" t="n">
-        <v>0.06069923705455247</v>
+        <v>0.0608258186038876</v>
       </c>
       <c r="J141" t="n">
-        <v>0.07521003320785584</v>
+        <v>0.07524056254626203</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2123469572906076</v>
+        <v>0.2123543016125827</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05342792628028813</v>
+        <v>0.05344016681691326</v>
       </c>
       <c r="M141" t="n">
-        <v>0.03308069825781162</v>
+        <v>0.03312980441062536</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -26573,40 +26573,40 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.03987994408142938</v>
+        <v>0.0397581208683593</v>
       </c>
       <c r="C142" t="n">
-        <v>0.03681177212596234</v>
+        <v>0.03678017244275989</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06647415167361788</v>
+        <v>0.06654378536465677</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2239538181353871</v>
+        <v>0.2239706903644273</v>
       </c>
       <c r="F142" t="n">
-        <v>0.05740661542942468</v>
+        <v>0.0573708691814581</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04401392616626781</v>
+        <v>0.04395959186935862</v>
       </c>
       <c r="H142" t="n">
-        <v>0.07180120053058871</v>
+        <v>0.07173442653938715</v>
       </c>
       <c r="I142" t="n">
-        <v>0.06046377754051802</v>
+        <v>0.06058917537838476</v>
       </c>
       <c r="J142" t="n">
-        <v>0.07480045371997619</v>
+        <v>0.07483033758327624</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2109095832974084</v>
+        <v>0.2109170185169854</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05326405424507427</v>
+        <v>0.05327520707443985</v>
       </c>
       <c r="M142" t="n">
-        <v>0.03302395670643223</v>
+        <v>0.03307385846859356</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -26758,40 +26758,40 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.03969152711880241</v>
+        <v>0.03957056181568352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.03673313038043588</v>
+        <v>0.03670175323021373</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06655576287506698</v>
+        <v>0.06662490618799996</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2247488479190702</v>
+        <v>0.2247656013295961</v>
       </c>
       <c r="F143" t="n">
-        <v>0.05785634149243356</v>
+        <v>0.0578208469786076</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04405465473634533</v>
+        <v>0.04400084505338517</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0721728406770536</v>
+        <v>0.07210639494717139</v>
       </c>
       <c r="I143" t="n">
-        <v>0.06086471450626706</v>
+        <v>0.06098922926076854</v>
       </c>
       <c r="J143" t="n">
-        <v>0.07472872962863368</v>
+        <v>0.07475840304219218</v>
       </c>
       <c r="K143" t="n">
-        <v>0.2096152650261765</v>
+        <v>0.2096226478850523</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0530908480661595</v>
+        <v>0.0531019223544732</v>
       </c>
       <c r="M143" t="n">
-        <v>0.03288211760837398</v>
+        <v>0.03293166794967502</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -26943,40 +26943,40 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.03965025519026447</v>
+        <v>0.03952999481315442</v>
       </c>
       <c r="C144" t="n">
-        <v>0.03702059920684545</v>
+        <v>0.03698958246245599</v>
       </c>
       <c r="D144" t="n">
-        <v>0.06706835230453706</v>
+        <v>0.06713701209779918</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2255020236310936</v>
+        <v>0.2255186598849025</v>
       </c>
       <c r="F144" t="n">
-        <v>0.05794252117914947</v>
+        <v>0.05790727487870691</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04404871151509324</v>
+        <v>0.04399513713842054</v>
       </c>
       <c r="H144" t="n">
-        <v>0.07203540194810532</v>
+        <v>0.07196956185887861</v>
       </c>
       <c r="I144" t="n">
-        <v>0.06065296168318285</v>
+        <v>0.06077660570513537</v>
       </c>
       <c r="J144" t="n">
-        <v>0.07436687422978022</v>
+        <v>0.07439648112215197</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2086583805903981</v>
+        <v>0.2086658528060919</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05339913206690086</v>
+        <v>0.05340970595703363</v>
       </c>
       <c r="M144" t="n">
-        <v>0.03283841418153226</v>
+        <v>0.03288775900215186</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -27128,40 +27128,40 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.03978372411846536</v>
+        <v>0.03966429888286303</v>
       </c>
       <c r="C145" t="n">
-        <v>0.03710932687289011</v>
+        <v>0.03707852552255891</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06715982428669673</v>
+        <v>0.06722800727583897</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2254577640683768</v>
+        <v>0.2254742847926453</v>
       </c>
       <c r="F145" t="n">
-        <v>0.05889988217083437</v>
+        <v>0.0588648806363671</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04417753674321082</v>
+        <v>0.04412433441082057</v>
       </c>
       <c r="H145" t="n">
-        <v>0.07202237746102789</v>
+        <v>0.07195699459464303</v>
       </c>
       <c r="I145" t="n">
-        <v>0.06050239242488391</v>
+        <v>0.0606251778077951</v>
       </c>
       <c r="J145" t="n">
-        <v>0.07430839768015429</v>
+        <v>0.07433779896910681</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2075565792804357</v>
+        <v>0.2075639996057427</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05346862406447898</v>
+        <v>0.05347912452481917</v>
       </c>
       <c r="M145" t="n">
-        <v>0.03292342336288023</v>
+        <v>0.03297242551113441</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -27313,40 +27313,40 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.03983957498076026</v>
+        <v>0.03972097336747243</v>
       </c>
       <c r="C146" t="n">
-        <v>0.03720239233219019</v>
+        <v>0.03717180340496472</v>
       </c>
       <c r="D146" t="n">
-        <v>0.06736794099674019</v>
+        <v>0.06743565375837111</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2247974700176373</v>
+        <v>0.2248138768058764</v>
       </c>
       <c r="F146" t="n">
-        <v>0.05895209287354468</v>
+        <v>0.05891733272897029</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04437563480714029</v>
+        <v>0.04432279938738721</v>
       </c>
       <c r="H146" t="n">
-        <v>0.07253955530651843</v>
+        <v>0.07247462335645347</v>
       </c>
       <c r="I146" t="n">
-        <v>0.06105814051301802</v>
+        <v>0.06118007910018499</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0744718022231198</v>
+        <v>0.0745010007445623</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2066533697526955</v>
+        <v>0.2066607389033452</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05329272421509856</v>
+        <v>0.05330315225847088</v>
       </c>
       <c r="M146" t="n">
-        <v>0.03300281070529028</v>
+        <v>0.03305147490769444</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -27498,40 +27498,40 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.03980283207944604</v>
+        <v>0.03968504280597524</v>
       </c>
       <c r="C147" t="n">
-        <v>0.03735452748549866</v>
+        <v>0.03732414807147337</v>
       </c>
       <c r="D147" t="n">
-        <v>0.06762871826766639</v>
+        <v>0.06769596724325874</v>
       </c>
       <c r="E147" t="n">
-        <v>0.2253257708845353</v>
+        <v>0.2253427557387404</v>
       </c>
       <c r="F147" t="n">
-        <v>0.06002778887853841</v>
+        <v>0.05999326681714603</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04469157023734331</v>
+        <v>0.04464089185121931</v>
       </c>
       <c r="H147" t="n">
-        <v>0.07256205892888262</v>
+        <v>0.07249536230627254</v>
       </c>
       <c r="I147" t="n">
-        <v>0.06081475379003903</v>
+        <v>0.06093558100491235</v>
       </c>
       <c r="J147" t="n">
-        <v>0.07424093581851669</v>
+        <v>0.07426965817359515</v>
       </c>
       <c r="K147" t="n">
-        <v>0.2053808570474579</v>
+        <v>0.2053877614597364</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05300337791466312</v>
+        <v>0.05301414879781755</v>
       </c>
       <c r="M147" t="n">
-        <v>0.03290145774237318</v>
+        <v>0.03295006480481365</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -27683,40 +27683,40 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.03986794209629579</v>
+        <v>0.03975081696152988</v>
       </c>
       <c r="C148" t="n">
-        <v>0.03773637436265206</v>
+        <v>0.03770620161130721</v>
       </c>
       <c r="D148" t="n">
-        <v>0.06802885667079073</v>
+        <v>0.06809564817035865</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2261447713296322</v>
+        <v>0.2261616406406114</v>
       </c>
       <c r="F148" t="n">
-        <v>0.06053929404265083</v>
+        <v>0.0605050068252135</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0447935066044724</v>
+        <v>0.04474303582040465</v>
       </c>
       <c r="H148" t="n">
-        <v>0.07262389240287151</v>
+        <v>0.07255751234991285</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06065230471132426</v>
+        <v>0.0607725842700944</v>
       </c>
       <c r="J148" t="n">
-        <v>0.07380542991576179</v>
+        <v>0.07383395688066965</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2040997363038681</v>
+        <v>0.2041065937473556</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05272948880364629</v>
+        <v>0.05274018641548674</v>
       </c>
       <c r="M148" t="n">
-        <v>0.03289172768762754</v>
+        <v>0.03294014123864904</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.03976584495626451</v>
+        <v>0.03964951120754431</v>
       </c>
       <c r="C149" t="n">
-        <v>0.03792303119433621</v>
+        <v>0.03789306231293288</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0683827211417381</v>
+        <v>0.06844906134739001</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2273406649931317</v>
+        <v>0.2273574203222799</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06058672531122683</v>
+        <v>0.0605526697641776</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04482854258060403</v>
+        <v>0.04477841281534756</v>
       </c>
       <c r="H149" t="n">
-        <v>0.07247115767609306</v>
+        <v>0.07240522613700574</v>
       </c>
       <c r="I149" t="n">
-        <v>0.06060783975039736</v>
+        <v>0.06072730660944609</v>
       </c>
       <c r="J149" t="n">
-        <v>0.07372481047406956</v>
+        <v>0.07375314468921453</v>
       </c>
       <c r="K149" t="n">
-        <v>0.202976781745355</v>
+        <v>0.2029835928547648</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05264333707308647</v>
+        <v>0.05265396240376583</v>
       </c>
       <c r="M149" t="n">
-        <v>0.03283812935332058</v>
+        <v>0.0328862157857541</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -28053,40 +28053,40 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.03970787555836515</v>
+        <v>0.03959205195716854</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0382259829411861</v>
+        <v>0.03819878604417615</v>
       </c>
       <c r="D150" t="n">
-        <v>0.06897498413176072</v>
+        <v>0.06904344995209422</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2290940767729163</v>
+        <v>0.2291101784184098</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06067059429549821</v>
+        <v>0.06063554953765952</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04471927592929835</v>
+        <v>0.0446669117544583</v>
       </c>
       <c r="H150" t="n">
-        <v>0.07225011294830735</v>
+        <v>0.07218475921071628</v>
       </c>
       <c r="I150" t="n">
-        <v>0.06030309791600056</v>
+        <v>0.06042135706021298</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07333744759692412</v>
+        <v>0.0733653210336607</v>
       </c>
       <c r="K150" t="n">
-        <v>0.2017078839474578</v>
+        <v>0.2017155965003412</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05240368476009022</v>
+        <v>0.05241369754804413</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0328684648461163</v>
+        <v>0.0329158226269794</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -28238,40 +28238,40 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.03962164741302258</v>
+        <v>0.03950740240452141</v>
       </c>
       <c r="C151" t="n">
-        <v>0.03826172859418157</v>
+        <v>0.03823592266284954</v>
       </c>
       <c r="D151" t="n">
-        <v>0.06915801428734636</v>
+        <v>0.06922454520406175</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2308501844720872</v>
+        <v>0.2308673884263086</v>
       </c>
       <c r="F151" t="n">
-        <v>0.06094379817611204</v>
+        <v>0.06090818061463815</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04492449748996996</v>
+        <v>0.04487154156838236</v>
       </c>
       <c r="H151" t="n">
-        <v>0.07233886413580372</v>
+        <v>0.07227381168390422</v>
       </c>
       <c r="I151" t="n">
-        <v>0.06004986458606346</v>
+        <v>0.06016720093008877</v>
       </c>
       <c r="J151" t="n">
-        <v>0.07293992728641224</v>
+        <v>0.07296788371202194</v>
       </c>
       <c r="K151" t="n">
-        <v>0.2004516037983105</v>
+        <v>0.2004592649341747</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05213362633817867</v>
+        <v>0.05214357237421288</v>
       </c>
       <c r="M151" t="n">
-        <v>0.03276130185547334</v>
+        <v>0.03280834391779736</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -28423,40 +28423,40 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.03955779037247033</v>
+        <v>0.03944443546921653</v>
       </c>
       <c r="C152" t="n">
-        <v>0.03836803119356037</v>
+        <v>0.03834226264664874</v>
       </c>
       <c r="D152" t="n">
-        <v>0.06969297110144249</v>
+        <v>0.06975906141606043</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2312306510590272</v>
+        <v>0.231247874595564</v>
       </c>
       <c r="F152" t="n">
-        <v>0.06126278430351022</v>
+        <v>0.06122726910413977</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04507292699049675</v>
+        <v>0.04501938715986686</v>
       </c>
       <c r="H152" t="n">
-        <v>0.07242884309505082</v>
+        <v>0.07236342035936842</v>
       </c>
       <c r="I152" t="n">
-        <v>0.06030387392050817</v>
+        <v>0.06042203539209781</v>
       </c>
       <c r="J152" t="n">
-        <v>0.07281630590923517</v>
+        <v>0.07284421070874052</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1993529557925224</v>
+        <v>0.1993605661923874</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05189224581698377</v>
+        <v>0.05190212598522968</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0326249831269424</v>
+        <v>0.03267171365242983</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -28608,40 +28608,40 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03946081838333056</v>
+        <v>0.03934860714820054</v>
       </c>
       <c r="C153" t="n">
-        <v>0.03822225040029965</v>
+        <v>0.03819665138330191</v>
       </c>
       <c r="D153" t="n">
-        <v>0.06936617364463153</v>
+        <v>0.06943182915454803</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2299929755236259</v>
+        <v>0.2300098204726348</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06113217687673954</v>
+        <v>0.06109742587957161</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04517868379139215</v>
+        <v>0.04512483300952124</v>
       </c>
       <c r="H153" t="n">
-        <v>0.07233101730758824</v>
+        <v>0.07226629025942813</v>
       </c>
       <c r="I153" t="n">
-        <v>0.0601885944574547</v>
+        <v>0.06030624382572932</v>
       </c>
       <c r="J153" t="n">
-        <v>0.07286581127927175</v>
+        <v>0.07289339985717605</v>
       </c>
       <c r="K153" t="n">
-        <v>0.2011353230357198</v>
+        <v>0.2011423528175896</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05215859400118206</v>
+        <v>0.05216787861874601</v>
       </c>
       <c r="M153" t="n">
-        <v>0.03269060789309214</v>
+        <v>0.03273769416788074</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -28793,40 +28793,40 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03936155619885905</v>
+        <v>0.03925007837049459</v>
       </c>
       <c r="C154" t="n">
-        <v>0.03809603248300523</v>
+        <v>0.03807007369791327</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06906341362240614</v>
+        <v>0.06912837647037741</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2287880818342135</v>
+        <v>0.228804553144551</v>
       </c>
       <c r="F154" t="n">
-        <v>0.06100209080224901</v>
+        <v>0.06096783047674693</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04526961756121035</v>
+        <v>0.04521572343378592</v>
       </c>
       <c r="H154" t="n">
-        <v>0.07240708962092662</v>
+        <v>0.07234015021571487</v>
       </c>
       <c r="I154" t="n">
-        <v>0.06013728112428684</v>
+        <v>0.06025600632919983</v>
       </c>
       <c r="J154" t="n">
-        <v>0.07286209309769082</v>
+        <v>0.07288936958760978</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2028178327102566</v>
+        <v>0.2028265295621148</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0522440974400553</v>
+        <v>0.05225305783287892</v>
       </c>
       <c r="M154" t="n">
-        <v>0.03273653164013534</v>
+        <v>0.03278396901390745</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -28978,40 +28978,40 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.03916343328855174</v>
+        <v>0.03905267934218964</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0378976177952005</v>
+        <v>0.0378718275736481</v>
       </c>
       <c r="D155" t="n">
-        <v>0.06887979059911077</v>
+        <v>0.06894433161040689</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2276899528366233</v>
+        <v>0.2277063171904002</v>
       </c>
       <c r="F155" t="n">
-        <v>0.06070088658141318</v>
+        <v>0.06066684872555722</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04520292715087175</v>
+        <v>0.04514938298531371</v>
       </c>
       <c r="H155" t="n">
-        <v>0.07221589321748592</v>
+        <v>0.07214938848373659</v>
       </c>
       <c r="I155" t="n">
-        <v>0.06039572411218144</v>
+        <v>0.06051367837420538</v>
       </c>
       <c r="J155" t="n">
-        <v>0.0736083033516553</v>
+        <v>0.07363540272150985</v>
       </c>
       <c r="K155" t="n">
-        <v>0.2042046177849892</v>
+        <v>0.2042132581637834</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0522232349211644</v>
+        <v>0.05223213712961904</v>
       </c>
       <c r="M155" t="n">
-        <v>0.03263641259851013</v>
+        <v>0.03268354193738763</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -29163,40 +29163,40 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0391533469343425</v>
+        <v>0.03904291731891461</v>
       </c>
       <c r="C156" t="n">
-        <v>0.03773063888540228</v>
+        <v>0.0377046248417208</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0685099350884575</v>
+        <v>0.06857366949547714</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2263478038619149</v>
+        <v>0.2263625017965949</v>
       </c>
       <c r="F156" t="n">
-        <v>0.06046548229061459</v>
+        <v>0.06043088361251822</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04521084707579387</v>
+        <v>0.04515153505620009</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07227221615589176</v>
+        <v>0.07219781599096273</v>
       </c>
       <c r="I156" t="n">
-        <v>0.06027193780562436</v>
+        <v>0.06040369893687107</v>
       </c>
       <c r="J156" t="n">
-        <v>0.07371248368431697</v>
+        <v>0.07374135927280343</v>
       </c>
       <c r="K156" t="n">
-        <v>0.2058172604480529</v>
+        <v>0.2058257150122494</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05242193998430052</v>
+        <v>0.05243208546133631</v>
       </c>
       <c r="M156" t="n">
-        <v>0.03280500978453218</v>
+        <v>0.03285209520359566</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -29348,40 +29348,40 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.03913615265200919</v>
+        <v>0.03902617244586157</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0375916480178491</v>
+        <v>0.0375660592037278</v>
       </c>
       <c r="D157" t="n">
-        <v>0.06817945667968853</v>
+        <v>0.0682425240599471</v>
       </c>
       <c r="E157" t="n">
-        <v>0.225057368053477</v>
+        <v>0.2250723594799319</v>
       </c>
       <c r="F157" t="n">
-        <v>0.06023645615085304</v>
+        <v>0.06020207925915472</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04530034289010922</v>
+        <v>0.04524205725794404</v>
       </c>
       <c r="H157" t="n">
-        <v>0.07222326472946421</v>
+        <v>0.07214934148866932</v>
       </c>
       <c r="I157" t="n">
-        <v>0.06017804128225289</v>
+        <v>0.0603080531358187</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0736256092851726</v>
+        <v>0.07365455824660276</v>
       </c>
       <c r="K157" t="n">
-        <v>0.2073920397593307</v>
+        <v>0.207400181654733</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05256756610055939</v>
+        <v>0.05257790501535587</v>
       </c>
       <c r="M157" t="n">
-        <v>0.03294133337882456</v>
+        <v>0.0329879877318437</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -29533,40 +29533,40 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.03905278774300446</v>
+        <v>0.03894350804772402</v>
       </c>
       <c r="C158" t="n">
-        <v>0.03747458861844911</v>
+        <v>0.03744916279040501</v>
       </c>
       <c r="D158" t="n">
-        <v>0.06782917490491318</v>
+        <v>0.06789184058211277</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2238994565165049</v>
+        <v>0.2239143524561671</v>
       </c>
       <c r="F158" t="n">
-        <v>0.06008058960183795</v>
+        <v>0.06004643167123325</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04516436064251324</v>
+        <v>0.0451064462564128</v>
       </c>
       <c r="H158" t="n">
-        <v>0.07222989776890927</v>
+        <v>0.07215644537678188</v>
       </c>
       <c r="I158" t="n">
-        <v>0.06032059400898148</v>
+        <v>0.06044977776156917</v>
       </c>
       <c r="J158" t="n">
-        <v>0.07379949320417697</v>
+        <v>0.07382825777731777</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2087913781273929</v>
+        <v>0.2087994681635887</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0525834374871988</v>
+        <v>0.0525937105490348</v>
       </c>
       <c r="M158" t="n">
-        <v>0.03282679861729725</v>
+        <v>0.03287315580883219</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -29718,40 +29718,40 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.03909948222256646</v>
+        <v>0.03899102177145775</v>
       </c>
       <c r="C159" t="n">
-        <v>0.03740481957412557</v>
+        <v>0.03737929946798235</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06757328545080885</v>
+        <v>0.06763568211032904</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2228322520039025</v>
+        <v>0.2228470536654656</v>
       </c>
       <c r="F159" t="n">
-        <v>0.05992605804446062</v>
+        <v>0.05989198870275941</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0450773118855556</v>
+        <v>0.04501976404620262</v>
       </c>
       <c r="H159" t="n">
-        <v>0.07223453283786897</v>
+        <v>0.07216129013323792</v>
       </c>
       <c r="I159" t="n">
-        <v>0.06024863218611099</v>
+        <v>0.06037750872213428</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07368318166308917</v>
+        <v>0.0737118917825003</v>
       </c>
       <c r="K159" t="n">
-        <v>0.2100493584372916</v>
+        <v>0.2100570144691346</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05256184861524076</v>
+        <v>0.05257231185875948</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0329023072472763</v>
+        <v>0.03294824343833411</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -29903,40 +29903,40 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.03895678711082996</v>
+        <v>0.03884875520489988</v>
       </c>
       <c r="C160" t="n">
-        <v>0.03730511621101167</v>
+        <v>0.0372703735558182</v>
       </c>
       <c r="D160" t="n">
-        <v>0.06750979736536555</v>
+        <v>0.06757230878511147</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2242681504062798</v>
+        <v>0.2242841269557484</v>
       </c>
       <c r="F160" t="n">
-        <v>0.06002212118111334</v>
+        <v>0.05998750532393152</v>
       </c>
       <c r="G160" t="n">
-        <v>0.04507707353739444</v>
+        <v>0.04502660792875575</v>
       </c>
       <c r="H160" t="n">
-        <v>0.07247153035943812</v>
+        <v>0.07239836790671318</v>
       </c>
       <c r="I160" t="n">
-        <v>0.0601716160368546</v>
+        <v>0.06030120360476603</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07343912598637758</v>
+        <v>0.07346854312508155</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2088897071587241</v>
+        <v>0.2088973150394234</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05228072217553942</v>
+        <v>0.05229111961249513</v>
       </c>
       <c r="M160" t="n">
-        <v>0.03272656680816056</v>
+        <v>0.03277208729434472</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -30088,40 +30088,40 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.03892839862099554</v>
+        <v>0.03882104191447753</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03717389770367533</v>
+        <v>0.03713937219007681</v>
       </c>
       <c r="D161" t="n">
-        <v>0.06722785326908731</v>
+        <v>0.06728997399245983</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2252172335235177</v>
+        <v>0.225233110219552</v>
       </c>
       <c r="F161" t="n">
-        <v>0.05994196185560775</v>
+        <v>0.05990756234753332</v>
       </c>
       <c r="G161" t="n">
-        <v>0.04515055140017338</v>
+        <v>0.04510040120158867</v>
       </c>
       <c r="H161" t="n">
-        <v>0.07239559182274551</v>
+        <v>0.07232288663535009</v>
       </c>
       <c r="I161" t="n">
-        <v>0.06013512832402573</v>
+        <v>0.06026390596963771</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07344559585492227</v>
+        <v>0.07347482913650935</v>
       </c>
       <c r="K161" t="n">
-        <v>0.208116141811657</v>
+        <v>0.2081237021431019</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05227943993064656</v>
+        <v>0.0522897723836213</v>
       </c>
       <c r="M161" t="n">
-        <v>0.03266365597467793</v>
+        <v>0.03270889195782343</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -30273,40 +30273,40 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.03891563997469997</v>
+        <v>0.03880895008002368</v>
       </c>
       <c r="C162" t="n">
-        <v>0.03706246655766432</v>
+        <v>0.0370284059340118</v>
       </c>
       <c r="D162" t="n">
-        <v>0.06714763940468542</v>
+        <v>0.06720924906217454</v>
       </c>
       <c r="E162" t="n">
-        <v>0.2263345972913539</v>
+        <v>0.2263501249286073</v>
       </c>
       <c r="F162" t="n">
-        <v>0.05990199305989748</v>
+        <v>0.05986780721336388</v>
       </c>
       <c r="G162" t="n">
-        <v>0.04503878841352753</v>
+        <v>0.04498907492974057</v>
       </c>
       <c r="H162" t="n">
-        <v>0.07255326073495062</v>
+        <v>0.072480881909689</v>
       </c>
       <c r="I162" t="n">
-        <v>0.0602590034938436</v>
+        <v>0.06038585427237304</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07317975080897111</v>
+        <v>0.07320980430042923</v>
       </c>
       <c r="K162" t="n">
-        <v>0.2071641012046316</v>
+        <v>0.2071719902461394</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05219164460343854</v>
+        <v>0.05220166243392458</v>
       </c>
       <c r="M162" t="n">
-        <v>0.03264222407858187</v>
+        <v>0.03268730431576903</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -30458,40 +30458,40 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.03883073345046558</v>
+        <v>0.03872482658528639</v>
       </c>
       <c r="C163" t="n">
-        <v>0.03709303949218467</v>
+        <v>0.03705981136879707</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06745744622333132</v>
+        <v>0.06751805332479109</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2279104538165175</v>
+        <v>0.2279260100540585</v>
       </c>
       <c r="F163" t="n">
-        <v>0.06000986638809801</v>
+        <v>0.05997601601520877</v>
       </c>
       <c r="G163" t="n">
-        <v>0.04507289155112116</v>
+        <v>0.0450238582903919</v>
       </c>
       <c r="H163" t="n">
-        <v>0.07258552881624997</v>
+        <v>0.0725129745243587</v>
       </c>
       <c r="I163" t="n">
-        <v>0.06011017300776244</v>
+        <v>0.06023624075679478</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07278253300846932</v>
+        <v>0.07281215208474739</v>
       </c>
       <c r="K163" t="n">
-        <v>0.205952140052931</v>
+        <v>0.2059599803966517</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05195521993906435</v>
+        <v>0.05196530038099093</v>
       </c>
       <c r="M163" t="n">
-        <v>0.03252535480044334</v>
+        <v>0.03257015676456144</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -30643,40 +30643,40 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.03871965771519301</v>
+        <v>0.03861440058538301</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0370022719955552</v>
+        <v>0.03696924772568533</v>
       </c>
       <c r="D164" t="n">
-        <v>0.06736963422096057</v>
+        <v>0.067429869499712</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2287545409917151</v>
+        <v>0.228770001792216</v>
       </c>
       <c r="F164" t="n">
-        <v>0.06046063537953111</v>
+        <v>0.0604269926776412</v>
       </c>
       <c r="G164" t="n">
-        <v>0.04495419459557205</v>
+        <v>0.04490546215239328</v>
       </c>
       <c r="H164" t="n">
-        <v>0.07243310822820093</v>
+        <v>0.07236099905466481</v>
       </c>
       <c r="I164" t="n">
-        <v>0.06026409768356392</v>
+        <v>0.06038939201082306</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07285871314438916</v>
+        <v>0.07288815050854283</v>
       </c>
       <c r="K164" t="n">
-        <v>0.2050697078020023</v>
+        <v>0.2050775000454547</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05187729368705831</v>
+        <v>0.05188731228578288</v>
       </c>
       <c r="M164" t="n">
-        <v>0.03259680965763232</v>
+        <v>0.03264133676307486</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -30828,40 +30828,40 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0387852379058054</v>
+        <v>0.03868062258776254</v>
       </c>
       <c r="C165" t="n">
-        <v>0.03692490464147802</v>
+        <v>0.03689208173910734</v>
       </c>
       <c r="D165" t="n">
-        <v>0.06723765404021653</v>
+        <v>0.0672975220306829</v>
       </c>
       <c r="E165" t="n">
-        <v>0.2302116007692606</v>
+        <v>0.2302269672965878</v>
       </c>
       <c r="F165" t="n">
-        <v>0.06050084552779965</v>
+        <v>0.06046740796433589</v>
       </c>
       <c r="G165" t="n">
-        <v>0.04516738696751295</v>
+        <v>0.04511895167337795</v>
       </c>
       <c r="H165" t="n">
-        <v>0.07266265284777401</v>
+        <v>0.07259098336432045</v>
       </c>
       <c r="I165" t="n">
-        <v>0.06035480205208294</v>
+        <v>0.06047933238954172</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07260671868830339</v>
+        <v>0.07263597655633418</v>
       </c>
       <c r="K165" t="n">
-        <v>0.2039039830530561</v>
+        <v>0.2039117277828289</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05162575400476289</v>
+        <v>0.05163571151447084</v>
       </c>
       <c r="M165" t="n">
-        <v>0.03248029027738918</v>
+        <v>0.03252454587609121</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -31013,40 +31013,40 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.038927001105183</v>
+        <v>0.0388230198193707</v>
       </c>
       <c r="C166" t="n">
-        <v>0.03738817582490089</v>
+        <v>0.03735530747486152</v>
       </c>
       <c r="D166" t="n">
-        <v>0.06749876132751478</v>
+        <v>0.06755851085602502</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2315229470569081</v>
+        <v>0.2315380982665916</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06047409845720364</v>
+        <v>0.06044086354563966</v>
       </c>
       <c r="G166" t="n">
-        <v>0.04517162105113961</v>
+        <v>0.04512347930424179</v>
       </c>
       <c r="H166" t="n">
-        <v>0.07242461509512577</v>
+        <v>0.07235337997217799</v>
       </c>
       <c r="I166" t="n">
-        <v>0.06009177478704303</v>
+        <v>0.06021555039518387</v>
       </c>
       <c r="J166" t="n">
-        <v>0.07229546325129076</v>
+        <v>0.07232454379890924</v>
       </c>
       <c r="K166" t="n">
-        <v>0.2028070059682326</v>
+        <v>0.2028150703217738</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05148723174569428</v>
+        <v>0.05149688453250881</v>
       </c>
       <c r="M166" t="n">
-        <v>0.03254003310050567</v>
+        <v>0.03258402048345799</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -31198,40 +31198,40 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.03891536388087784</v>
+        <v>0.03881200898835357</v>
       </c>
       <c r="C167" t="n">
-        <v>0.03729083386630128</v>
+        <v>0.03725816351837057</v>
       </c>
       <c r="D167" t="n">
-        <v>0.06721723692414869</v>
+        <v>0.06727662651574018</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2304382951859453</v>
+        <v>0.2304533551232814</v>
       </c>
       <c r="F167" t="n">
-        <v>0.06019590549452097</v>
+        <v>0.06016287079326763</v>
       </c>
       <c r="G167" t="n">
-        <v>0.04516086563548199</v>
+        <v>0.04511301389910765</v>
       </c>
       <c r="H167" t="n">
-        <v>0.07283374339275613</v>
+        <v>0.072762937397055</v>
       </c>
       <c r="I167" t="n">
-        <v>0.06067843074481349</v>
+        <v>0.06080146071676071</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07317599261382944</v>
+        <v>0.07320489797742613</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2027746477128449</v>
+        <v>0.2027826634859431</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0516042112442836</v>
+        <v>0.05161380588177998</v>
       </c>
       <c r="M167" t="n">
-        <v>0.03250808925101831</v>
+        <v>0.03255181164973598</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -31383,40 +31383,40 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.03889010350501191</v>
+        <v>0.03878736750405964</v>
       </c>
       <c r="C168" t="n">
-        <v>0.037198520843034</v>
+        <v>0.03716604612592923</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0669632288416051</v>
+        <v>0.06702238353075507</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2292584645833029</v>
+        <v>0.2292733136175181</v>
       </c>
       <c r="F168" t="n">
-        <v>0.05997669788142913</v>
+        <v>0.05994386099275814</v>
       </c>
       <c r="G168" t="n">
-        <v>0.04525502733369172</v>
+        <v>0.04520746213466094</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0730749947454942</v>
+        <v>0.07300461273779128</v>
       </c>
       <c r="I168" t="n">
-        <v>0.06078627205579567</v>
+        <v>0.06090856532132405</v>
       </c>
       <c r="J168" t="n">
-        <v>0.07387285870588614</v>
+        <v>0.07390159098347326</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2037130553312439</v>
+        <v>0.2037210231057009</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05156224515948647</v>
+        <v>0.05157178234406371</v>
       </c>
       <c r="M168" t="n">
-        <v>0.03240505944020107</v>
+        <v>0.03244852002814797</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -31568,40 +31568,40 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.03882686216963752</v>
+        <v>0.03872473769250044</v>
       </c>
       <c r="C169" t="n">
-        <v>0.03706254482196499</v>
+        <v>0.03703026340674775</v>
       </c>
       <c r="D169" t="n">
-        <v>0.06668860362838307</v>
+        <v>0.06674740620628808</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2281004799250399</v>
+        <v>0.2281152405721467</v>
       </c>
       <c r="F169" t="n">
-        <v>0.05982730282895602</v>
+        <v>0.05979466139795569</v>
       </c>
       <c r="G169" t="n">
-        <v>0.04518570094112926</v>
+        <v>0.04513841886828319</v>
       </c>
       <c r="H169" t="n">
-        <v>0.07325121133310485</v>
+        <v>0.07318124826592398</v>
       </c>
       <c r="I169" t="n">
-        <v>0.06090038987309204</v>
+        <v>0.06102195520251608</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07447214485883061</v>
+        <v>0.07450070611095591</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2044691639281466</v>
+        <v>0.2044770842753746</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05189243496434884</v>
+        <v>0.05190191537997026</v>
       </c>
       <c r="M169" t="n">
-        <v>0.03244066219863079</v>
+        <v>0.03248386409260182</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -31753,40 +31753,40 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.03894414707472137</v>
+        <v>0.03884262688443126</v>
       </c>
       <c r="C170" t="n">
-        <v>0.03707717765281741</v>
+        <v>0.03704508725189139</v>
       </c>
       <c r="D170" t="n">
-        <v>0.06641353026739177</v>
+        <v>0.06647198490104883</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2269820862792779</v>
+        <v>0.2269967595852775</v>
       </c>
       <c r="F170" t="n">
-        <v>0.05962312985434418</v>
+        <v>0.05959068156790597</v>
       </c>
       <c r="G170" t="n">
-        <v>0.04525975270826879</v>
+        <v>0.04521275041100169</v>
       </c>
       <c r="H170" t="n">
-        <v>0.07376115842291307</v>
+        <v>0.07369160933837825</v>
       </c>
       <c r="I170" t="n">
-        <v>0.06157479884746549</v>
+        <v>0.06169564485541366</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07479067574630165</v>
+        <v>0.07481906799693507</v>
       </c>
       <c r="K170" t="n">
-        <v>0.2037733301091825</v>
+        <v>0.2037812035904506</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05230639914804161</v>
+        <v>0.05231582346652917</v>
       </c>
       <c r="M170" t="n">
-        <v>0.03277038339917035</v>
+        <v>0.03281332966063268</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -31938,40 +31938,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.03920651504891386</v>
+        <v>0.03910571062964812</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0371600667443849</v>
+        <v>0.03712804651708872</v>
       </c>
       <c r="D171" t="n">
-        <v>0.06616695346512226</v>
+        <v>0.06622518284142753</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2258336821956863</v>
+        <v>0.2258482691881212</v>
       </c>
       <c r="F171" t="n">
-        <v>0.05941981720008017</v>
+        <v>0.0593874411924807</v>
       </c>
       <c r="G171" t="n">
-        <v>0.04507605989917186</v>
+        <v>0.04502933408600633</v>
       </c>
       <c r="H171" t="n">
-        <v>0.07355496864982561</v>
+        <v>0.07348582867755275</v>
       </c>
       <c r="I171" t="n">
-        <v>0.06164225816130368</v>
+        <v>0.06176227471694712</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07499469294380924</v>
+        <v>0.07502291818120366</v>
       </c>
       <c r="K171" t="n">
-        <v>0.2045641869174839</v>
+        <v>0.2045721326775907</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05294176943776039</v>
+        <v>0.05295113831908038</v>
       </c>
       <c r="M171" t="n">
-        <v>0.03287279549629574</v>
+        <v>0.03291548913269064</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -32123,40 +32123,40 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03928519173648994</v>
+        <v>0.03918627371571338</v>
       </c>
       <c r="C172" t="n">
-        <v>0.03718397961935072</v>
+        <v>0.0371523824446569</v>
       </c>
       <c r="D172" t="n">
-        <v>0.06597042056429017</v>
+        <v>0.06602830941792699</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2246133502071678</v>
+        <v>0.2246278518955534</v>
       </c>
       <c r="F172" t="n">
-        <v>0.05913234394090574</v>
+        <v>0.05910027516658962</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04500475195569416</v>
+        <v>0.04495818149299245</v>
       </c>
       <c r="H172" t="n">
-        <v>0.07343996908192876</v>
+        <v>0.07337111553707357</v>
       </c>
       <c r="I172" t="n">
-        <v>0.06151403993340541</v>
+        <v>0.06163264723841283</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07547610045119114</v>
+        <v>0.07550451432843447</v>
       </c>
       <c r="K172" t="n">
-        <v>0.205992710720438</v>
+        <v>0.2060002563143947</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05303467872452581</v>
+        <v>0.05304269591810484</v>
       </c>
       <c r="M172" t="n">
-        <v>0.03294158731708272</v>
+        <v>0.03298462078261721</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -32308,40 +32308,40 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03926238358847792</v>
+        <v>0.03916404067247331</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0373129902200959</v>
+        <v>0.03728157674990611</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0657934034525748</v>
+        <v>0.06585095574310908</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2236547650248987</v>
+        <v>0.2236691824011425</v>
       </c>
       <c r="F173" t="n">
-        <v>0.05898172064235389</v>
+        <v>0.05894972109995907</v>
       </c>
       <c r="G173" t="n">
-        <v>0.044918097581491</v>
+        <v>0.04487191509173437</v>
       </c>
       <c r="H173" t="n">
-        <v>0.07322573672792605</v>
+        <v>0.07315728349437817</v>
       </c>
       <c r="I173" t="n">
-        <v>0.06146819057942849</v>
+        <v>0.06158610830708121</v>
       </c>
       <c r="J173" t="n">
-        <v>0.07664499918653178</v>
+        <v>0.07667324786681438</v>
       </c>
       <c r="K173" t="n">
-        <v>0.2061281585189346</v>
+        <v>0.206135660243159</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05335402090074141</v>
+        <v>0.05336199148272986</v>
       </c>
       <c r="M173" t="n">
-        <v>0.03299820943219918</v>
+        <v>0.03304099270316662</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -32493,40 +32493,40 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.03922935079739791</v>
+        <v>0.03912889598883483</v>
       </c>
       <c r="C174" t="n">
-        <v>0.03744120859021465</v>
+        <v>0.03740974362697563</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06556645732366248</v>
+        <v>0.06562367694199714</v>
       </c>
       <c r="E174" t="n">
-        <v>0.2225065852089268</v>
+        <v>0.2225209192477356</v>
       </c>
       <c r="F174" t="n">
-        <v>0.05873669571038156</v>
+        <v>0.05870464806263812</v>
       </c>
       <c r="G174" t="n">
-        <v>0.04483197884435716</v>
+        <v>0.04478443178879598</v>
       </c>
       <c r="H174" t="n">
-        <v>0.07322118365831008</v>
+        <v>0.07315603953071523</v>
       </c>
       <c r="I174" t="n">
-        <v>0.0614296304160379</v>
+        <v>0.0615481484442382</v>
       </c>
       <c r="J174" t="n">
-        <v>0.07668337844670994</v>
+        <v>0.07671495994684985</v>
       </c>
       <c r="K174" t="n">
-        <v>0.2076356608976628</v>
+        <v>0.2076449838497336</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05361186895705184</v>
+        <v>0.0536216580567262</v>
       </c>
       <c r="M174" t="n">
-        <v>0.03300045344508135</v>
+        <v>0.033036346810554</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -32678,40 +32678,40 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03917920175413594</v>
+        <v>0.03908001947495034</v>
       </c>
       <c r="C175" t="n">
-        <v>0.03752461887239481</v>
+        <v>0.03749321887512928</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06534814486267078</v>
+        <v>0.06540526736692137</v>
       </c>
       <c r="E175" t="n">
-        <v>0.2213673157776065</v>
+        <v>0.2213815674368819</v>
       </c>
       <c r="F175" t="n">
-        <v>0.05849332848545184</v>
+        <v>0.05846158088674056</v>
       </c>
       <c r="G175" t="n">
-        <v>0.04474881971929098</v>
+        <v>0.04470085071977831</v>
       </c>
       <c r="H175" t="n">
-        <v>0.07315793827849688</v>
+        <v>0.07309351614388568</v>
       </c>
       <c r="I175" t="n">
-        <v>0.061367760707457</v>
+        <v>0.06148640866760426</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07678145161608023</v>
+        <v>0.07681215641045427</v>
       </c>
       <c r="K175" t="n">
-        <v>0.2090536504292762</v>
+        <v>0.2090629198011627</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05392607722267372</v>
+        <v>0.05393534659456022</v>
       </c>
       <c r="M175" t="n">
-        <v>0.03309617645361711</v>
+        <v>0.03313163180108299</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -32863,40 +32863,40 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.03921337991457546</v>
+        <v>0.03911476439127091</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03761721393865907</v>
+        <v>0.03758599336994934</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06508716702140221</v>
+        <v>0.0651439631113428</v>
       </c>
       <c r="E176" t="n">
-        <v>0.220220675274404</v>
+        <v>0.2202348454956265</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0583082714346197</v>
+        <v>0.05827670525075819</v>
       </c>
       <c r="G176" t="n">
-        <v>0.04473262347821329</v>
+        <v>0.04468492858726927</v>
       </c>
       <c r="H176" t="n">
-        <v>0.07312271930001411</v>
+        <v>0.0730586652918864</v>
       </c>
       <c r="I176" t="n">
-        <v>0.06137053688433701</v>
+        <v>0.06148862206119116</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07721618515755731</v>
+        <v>0.07724659929091292</v>
       </c>
       <c r="K176" t="n">
-        <v>0.210119726848825</v>
+        <v>0.2101289432528722</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05396884279406809</v>
+        <v>0.05397805919811525</v>
       </c>
       <c r="M176" t="n">
-        <v>0.03317225747176756</v>
+        <v>0.03320751021724792</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -33048,40 +33048,40 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03914590706565667</v>
+        <v>0.03904796640830189</v>
       </c>
       <c r="C177" t="n">
-        <v>0.03754391865266646</v>
+        <v>0.03751299002402811</v>
       </c>
       <c r="D177" t="n">
-        <v>0.06484301544506985</v>
+        <v>0.06489948882995394</v>
       </c>
       <c r="E177" t="n">
-        <v>0.2190781298397576</v>
+        <v>0.2190921049978831</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05820974100595479</v>
+        <v>0.05817858327636356</v>
       </c>
       <c r="G177" t="n">
-        <v>0.04473597031584774</v>
+        <v>0.04468843186812583</v>
       </c>
       <c r="H177" t="n">
-        <v>0.07303956023613893</v>
+        <v>0.07297575562076278</v>
       </c>
       <c r="I177" t="n">
-        <v>0.06129252342786344</v>
+        <v>0.06141039586811849</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07762581766130082</v>
+        <v>0.07765479893183971</v>
       </c>
       <c r="K177" t="n">
-        <v>0.2114010714593364</v>
+        <v>0.2114105791488808</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05411627973043066</v>
+        <v>0.05412613107140436</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0331961553194492</v>
+        <v>0.03323086411381002</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -33233,40 +33233,40 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.03909844627927472</v>
+        <v>0.0390003755391755</v>
       </c>
       <c r="C178" t="n">
-        <v>0.03744229231755283</v>
+        <v>0.03741233575001962</v>
       </c>
       <c r="D178" t="n">
-        <v>0.06461631616913137</v>
+        <v>0.06467224268874659</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2179617073056551</v>
+        <v>0.2179754896047863</v>
       </c>
       <c r="F178" t="n">
-        <v>0.05801755637102723</v>
+        <v>0.05798737199689682</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04467902449114556</v>
+        <v>0.04463186852552294</v>
       </c>
       <c r="H178" t="n">
-        <v>0.07313389093554133</v>
+        <v>0.07307021899162093</v>
       </c>
       <c r="I178" t="n">
-        <v>0.06124865124256539</v>
+        <v>0.06136699676981636</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07781850580058243</v>
+        <v>0.07784607039884493</v>
       </c>
       <c r="K178" t="n">
-        <v>0.2127213582467184</v>
+        <v>0.2127312678336971</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05425362186861323</v>
+        <v>0.05426159509951561</v>
       </c>
       <c r="M178" t="n">
-        <v>0.03321420187332199</v>
+        <v>0.03324973970248686</v>
       </c>
       <c r="N178" t="n">
         <v>0</v>
@@ -33418,40 +33418,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.038940067582001</v>
+        <v>0.03884254780111582</v>
       </c>
       <c r="C179" t="n">
-        <v>0.03727928645874981</v>
+        <v>0.03724949818653982</v>
       </c>
       <c r="D179" t="n">
-        <v>0.06445038145977938</v>
+        <v>0.06450599378546418</v>
       </c>
       <c r="E179" t="n">
-        <v>0.2170963615494342</v>
+        <v>0.2171100664199186</v>
       </c>
       <c r="F179" t="n">
-        <v>0.05775413643572336</v>
+        <v>0.05772412163672851</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04462339808752497</v>
+        <v>0.04457650704305753</v>
       </c>
       <c r="H179" t="n">
-        <v>0.07310245874437563</v>
+        <v>0.07303914450800535</v>
       </c>
       <c r="I179" t="n">
-        <v>0.06145773610490365</v>
+        <v>0.0615755300330344</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07812115966310031</v>
+        <v>0.07814845614067675</v>
       </c>
       <c r="K179" t="n">
-        <v>0.2140192217038031</v>
+        <v>0.2140290756189448</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05417863766338527</v>
+        <v>0.05418656610085561</v>
       </c>
       <c r="M179" t="n">
-        <v>0.03310768245203465</v>
+        <v>0.03314302063047388</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -33603,40 +33603,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03890859111576301</v>
+        <v>0.03881172876875905</v>
       </c>
       <c r="C180" t="n">
-        <v>0.03712148081354009</v>
+        <v>0.03709197158689471</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0641441609068298</v>
+        <v>0.06419923728785878</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2159648520331914</v>
+        <v>0.2159782550788814</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05752542157928651</v>
+        <v>0.05749568709136901</v>
       </c>
       <c r="G180" t="n">
-        <v>0.04477045256904286</v>
+        <v>0.0447233729631735</v>
       </c>
       <c r="H180" t="n">
-        <v>0.07318085472911826</v>
+        <v>0.07311766894229359</v>
       </c>
       <c r="I180" t="n">
-        <v>0.06134123489806195</v>
+        <v>0.06145882128209931</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07838934586266563</v>
+        <v>0.07841660247659001</v>
       </c>
       <c r="K180" t="n">
-        <v>0.2152604600353277</v>
+        <v>0.2152705967925723</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05419865048224496</v>
+        <v>0.05420619673486039</v>
       </c>
       <c r="M180" t="n">
-        <v>0.03316071186616687</v>
+        <v>0.03319607788588692</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -33788,40 +33788,40 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03888082453534763</v>
+        <v>0.03878427630267311</v>
       </c>
       <c r="C181" t="n">
-        <v>0.03697226086391627</v>
+        <v>0.03694257956268803</v>
       </c>
       <c r="D181" t="n">
-        <v>0.06384761507944509</v>
+        <v>0.06390260949040005</v>
       </c>
       <c r="E181" t="n">
-        <v>0.2148610355077967</v>
+        <v>0.2148747001068527</v>
       </c>
       <c r="F181" t="n">
-        <v>0.05729555183699253</v>
+        <v>0.05726587053576429</v>
       </c>
       <c r="G181" t="n">
-        <v>0.04482682920819249</v>
+        <v>0.04478023516550966</v>
       </c>
       <c r="H181" t="n">
-        <v>0.07322108201223541</v>
+        <v>0.07315936730666273</v>
       </c>
       <c r="I181" t="n">
-        <v>0.061248765145864</v>
+        <v>0.0613645782231093</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0784446550136758</v>
+        <v>0.07847176020196725</v>
       </c>
       <c r="K181" t="n">
-        <v>0.2164480330817703</v>
+        <v>0.2164587855531586</v>
       </c>
       <c r="L181" t="n">
-        <v>0.05449363700104613</v>
+        <v>0.05450102932512561</v>
       </c>
       <c r="M181" t="n">
-        <v>0.03331171638564635</v>
+        <v>0.03334621389801729</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
